--- a/lyric_generation/results/lda_tuning_results.xlsx
+++ b/lyric_generation/results/lda_tuning_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasdhome/Documents/thomas/Princeton/Spring 2020-2021/COS401/PROJECT/ml-music/lyric_generation/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A05ACC-7A50-D742-BBE0-FF90008ED8A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D593D7-7C00-E240-AD0D-21ED7EC89221}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5320" yWindow="500" windowWidth="34300" windowHeight="22340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="10">
   <si>
     <t>Validation_Set</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>CHAMPION</t>
-  </si>
-  <si>
-    <t>NOT overfit CHAMPION</t>
   </si>
 </sst>
 </file>
@@ -689,1624 +686,1624 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="540"/>
                 <c:pt idx="0">
-                  <c:v>0.230871464601549</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28118075530382303</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28797967558222598</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29622693723684901</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.280961351915192</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.230871464601549</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29218912481738402</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28431545210000397</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29178768037750502</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.280961351915192</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.22537563332522301</c:v>
+                  <c:v>0.29177789406702398</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.29158805410059702</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.28431545210000297</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.28766397367830299</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.27872858330328798</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.222924898621704</c:v>
+                  <c:v>0.29177789406702398</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.28504574679056799</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.27872858330328798</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28541383706114198</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28972473282570499</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.230871464601549</c:v>
+                  <c:v>0.29177789406702398</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.29218912481738402</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.28431545210000397</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.28766397367830299</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.280961351915192</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.230871464601549</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.243993563023817</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.28797967558222598</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.30812691871078901</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.280961351915192</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.28887648444328301</c:v>
+                  <c:v>0.30472772135951998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.30482422019591898</c:v>
+                  <c:v>0.28390341875282898</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.33358575585801697</c:v>
+                  <c:v>0.28555472859882802</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.51360679039465695</c:v>
+                  <c:v>0.29399938681307702</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.28806163310435001</c:v>
+                  <c:v>0.29004322719453801</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.26838365839389999</c:v>
+                  <c:v>0.29678986961569198</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.30482422019591898</c:v>
+                  <c:v>0.30016469898785397</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.34720276122322702</c:v>
+                  <c:v>0.28470757114638501</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.50677577666535101</c:v>
+                  <c:v>0.307975782957713</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.30482422019591898</c:v>
+                  <c:v>0.295898661598678</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.28480115937228501</c:v>
+                  <c:v>0.28724897552356199</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.304552173223823</c:v>
+                  <c:v>0.30016469898785397</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.293571641819384</c:v>
+                  <c:v>0.28390341875282898</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.43400818076257902</c:v>
+                  <c:v>0.29862923893040499</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.28806163310435001</c:v>
+                  <c:v>0.30016469898785397</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.27009145923377997</c:v>
+                  <c:v>0.28724897552356199</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.25558642237611401</c:v>
+                  <c:v>0.30391057520485598</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.289422224381989</c:v>
+                  <c:v>0.28390341875282898</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.35985320207511501</c:v>
+                  <c:v>0.29603584898152502</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.26760950259336702</c:v>
+                  <c:v>0.30391057520485598</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.26838365839389999</c:v>
+                  <c:v>0.29678986961569198</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.30482422019591898</c:v>
+                  <c:v>0.30016469898785397</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.35168907889937301</c:v>
+                  <c:v>0.28470757114638501</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.50677577666535101</c:v>
+                  <c:v>0.30347273898129801</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.30482422019591898</c:v>
+                  <c:v>0.295898661598678</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.281212387879333</c:v>
+                  <c:v>0.29678986961569198</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.29858783231898101</c:v>
+                  <c:v>0.28529616735380198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.38782258975288902</c:v>
+                  <c:v>0.26732724940464297</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.54122911727934397</c:v>
+                  <c:v>0.32539832728496398</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.29858783231898101</c:v>
+                  <c:v>0.28529616735380198</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.29618660078028702</c:v>
+                  <c:v>0.27887909472851202</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.28535533826673498</c:v>
+                  <c:v>0.276799443858252</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.37512252742446001</c:v>
+                  <c:v>0.27648921927283998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.50653302674770095</c:v>
+                  <c:v>0.28673181160968098</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.29233069525598898</c:v>
+                  <c:v>0.276799443858252</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.23938326620157199</c:v>
+                  <c:v>0.27028545873687598</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.29060264427979698</c:v>
+                  <c:v>0.28132272585592299</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.35905534204995698</c:v>
+                  <c:v>0.28132272585592299</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.50694136685032698</c:v>
+                  <c:v>0.29087466587620098</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.319353190780505</c:v>
+                  <c:v>0.28345993907629002</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.24178245557568401</c:v>
+                  <c:v>0.27515324628608201</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.28068464815181499</c:v>
+                  <c:v>0.28345993907629002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.345872023190749</c:v>
+                  <c:v>0.27479333124900601</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.51031621784841097</c:v>
+                  <c:v>0.28654458411725697</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.24608688288196301</c:v>
+                  <c:v>0.28345993907629002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.22793266663112499</c:v>
+                  <c:v>0.27367485624783799</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.26682414370150698</c:v>
+                  <c:v>0.27385022147995097</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.294039044677259</c:v>
+                  <c:v>0.27479333124900601</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.44195003137699601</c:v>
+                  <c:v>0.281025649147297</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.24360311453102701</c:v>
+                  <c:v>0.27385022147995097</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.26599827991908698</c:v>
+                  <c:v>0.27028545873687598</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.29233069525598898</c:v>
+                  <c:v>0.276799443858252</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.35905534204995698</c:v>
+                  <c:v>0.28132272585592299</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.50653302674770095</c:v>
+                  <c:v>0.29087466587620098</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.319353190780505</c:v>
+                  <c:v>0.27714509269370002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.26338495639158199</c:v>
+                  <c:v>0.27737717214931401</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.35909157931285202</c:v>
+                  <c:v>0.28067283732090997</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.36601285152200103</c:v>
+                  <c:v>0.27311986909900898</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.56015550367496103</c:v>
+                  <c:v>0.29131516848509598</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.35909157931285202</c:v>
+                  <c:v>0.276495204158687</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.32573159353234399</c:v>
+                  <c:v>0.28896320027019701</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.38712656424495701</c:v>
+                  <c:v>0.28700945755678497</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.45200114720873602</c:v>
+                  <c:v>0.27588764666258803</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.55365224700599502</c:v>
+                  <c:v>0.28789524970395802</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.38799110001520198</c:v>
+                  <c:v>0.28825714036050198</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.32565265874816601</c:v>
+                  <c:v>0.29349557109597801</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.39088282417667097</c:v>
+                  <c:v>0.29820202094655601</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.44301011164278598</c:v>
+                  <c:v>0.27156921001984502</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.54109701756442297</c:v>
+                  <c:v>0.28634478754005299</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.36212326809997297</c:v>
+                  <c:v>0.29394524109824699</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.29834754112037198</c:v>
+                  <c:v>0.29801192305152902</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.37806701237123802</c:v>
+                  <c:v>0.28966667297294502</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.40105355719589503</c:v>
+                  <c:v>0.276698794511479</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.55348052308710105</c:v>
+                  <c:v>0.276698794511479</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.340611070415826</c:v>
+                  <c:v>0.292272633985175</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.275332697511179</c:v>
+                  <c:v>0.301784073925983</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.35038362099700199</c:v>
+                  <c:v>0.30065699319887501</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.34984366874038902</c:v>
+                  <c:v>0.27169837016453902</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.448490584675723</c:v>
+                  <c:v>0.276698794511479</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.33578777307728402</c:v>
+                  <c:v>0.29982073914910601</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.32315031926613702</c:v>
+                  <c:v>0.29097452366920601</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.39088282417667097</c:v>
+                  <c:v>0.28519093719463501</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.44301011164278598</c:v>
+                  <c:v>0.27156921001984502</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.54109701756442297</c:v>
+                  <c:v>0.28142725131983298</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.37986253614412602</c:v>
+                  <c:v>0.28779689820686599</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.33489978713940599</c:v>
+                  <c:v>0.29046122783978601</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.40645729794614099</c:v>
+                  <c:v>0.29998577405683902</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.44952270261670901</c:v>
+                  <c:v>0.273650289479901</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.549434659972863</c:v>
+                  <c:v>0.27722244197078899</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.39373824813521902</c:v>
+                  <c:v>0.28884293837857</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.34751826725878698</c:v>
+                  <c:v>0.30905429569835802</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.28826348130185198</c:v>
+                  <c:v>0.29678297688495903</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.46952770693185403</c:v>
+                  <c:v>0.28896427942483799</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.55374253532984097</c:v>
+                  <c:v>0.299484714296326</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.297199947839559</c:v>
+                  <c:v>0.30159745926362802</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.31590030112811002</c:v>
+                  <c:v>0.303965227446368</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.38191179670792502</c:v>
+                  <c:v>0.300212615252058</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.42764413467144202</c:v>
+                  <c:v>0.28692663726845502</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.56907911339364503</c:v>
+                  <c:v>0.28890857665436798</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.356689198456136</c:v>
+                  <c:v>0.31228241674120399</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.31709178779903902</c:v>
+                  <c:v>0.30182186067774602</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.361478619057652</c:v>
+                  <c:v>0.297779919874123</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.41885222343760597</c:v>
+                  <c:v>0.29418810360998499</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.60540761105754604</c:v>
+                  <c:v>0.29193242597770902</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.35500955104183202</c:v>
+                  <c:v>0.30010836272674402</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.31650508532780303</c:v>
+                  <c:v>0.289892769111599</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.33326195620536297</c:v>
+                  <c:v>0.294845976396647</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.41832514962999301</c:v>
+                  <c:v>0.29262171671468101</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.66065542488080997</c:v>
+                  <c:v>0.30113674437604798</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.34812506243962399</c:v>
+                  <c:v>0.30030180210465102</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.33908031533642702</c:v>
+                  <c:v>0.30905429569835802</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.28361818251027698</c:v>
+                  <c:v>0.30146240814214897</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.40980108556598199</c:v>
+                  <c:v>0.28607698094561201</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.54962523034045796</c:v>
+                  <c:v>0.28796440505752302</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.37081760093470101</c:v>
+                  <c:v>0.30637166534666199</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.337271854234096</c:v>
+                  <c:v>0.29241348751184698</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.35851378590894001</c:v>
+                  <c:v>0.31239321030918599</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.546464354821388</c:v>
+                  <c:v>0.31756194906155599</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.48476895133002701</c:v>
+                  <c:v>0.30077805802768798</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.30643187521183402</c:v>
+                  <c:v>0.30603783318677202</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.32231994796887398</c:v>
+                  <c:v>0.294301129945299</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.50469442527966901</c:v>
+                  <c:v>0.29480781663282102</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.57657277818593999</c:v>
+                  <c:v>0.32069466840073202</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.59542660824049198</c:v>
+                  <c:v>0.322247479162383</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.39382001731239602</c:v>
+                  <c:v>0.30268547032936</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.27935152061398899</c:v>
+                  <c:v>0.30588251905485497</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.40689314630914097</c:v>
+                  <c:v>0.30678201220930401</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.48553241917949902</c:v>
+                  <c:v>0.29756100730781798</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.61372352991229995</c:v>
+                  <c:v>0.340341961596414</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.35701975312807499</c:v>
+                  <c:v>0.30072894325219401</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.27997233745258598</c:v>
+                  <c:v>0.30641388587593199</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.40598676164081898</c:v>
+                  <c:v>0.298771479419222</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.45459688480194799</c:v>
+                  <c:v>0.31413063928117302</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.53243322692928996</c:v>
+                  <c:v>0.34612413414808701</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.34753029728221602</c:v>
+                  <c:v>0.305575102472319</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.29683013296549299</c:v>
+                  <c:v>0.30459541019823699</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.362780213862268</c:v>
+                  <c:v>0.29906655305177299</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.40407169030499301</c:v>
+                  <c:v>0.34211209892195399</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.453960685755114</c:v>
+                  <c:v>0.34534907880948701</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.33590569204739701</c:v>
+                  <c:v>0.299931765550564</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.30601688575620201</c:v>
+                  <c:v>0.30768080034149398</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.38771409004882201</c:v>
+                  <c:v>0.29480781663282102</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.46360903780085</c:v>
+                  <c:v>0.30414574213833001</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.59779626081345405</c:v>
+                  <c:v>0.32633523581649698</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.37034370058025601</c:v>
+                  <c:v>0.302686327100396</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.34000911091517</c:v>
+                  <c:v>0.28861862469883498</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.45630091669273998</c:v>
+                  <c:v>0.30240592208776801</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.53125508519521503</c:v>
+                  <c:v>0.385806245281407</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.52143407804714903</c:v>
+                  <c:v>0.34547277377528801</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.44464487234655797</c:v>
+                  <c:v>0.29480978695059601</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.37197974119704402</c:v>
+                  <c:v>0.30395712343315401</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.52557963611776704</c:v>
+                  <c:v>0.33523745246068098</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.59470912090533901</c:v>
+                  <c:v>0.34625677294628998</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.480522601648464</c:v>
+                  <c:v>0.420357465393567</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.46033785563785701</c:v>
+                  <c:v>0.31321872824153302</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.42747527647047201</c:v>
+                  <c:v>0.29684371457277903</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.48335322989867902</c:v>
+                  <c:v>0.31865722551231201</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.51002887371350103</c:v>
+                  <c:v>0.32236417768822001</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.38834278475677098</c:v>
+                  <c:v>0.32503182208596798</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.38156031435952897</c:v>
+                  <c:v>0.31276164859310202</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.35707153551235599</c:v>
+                  <c:v>0.298215174103235</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.43614550448334899</c:v>
+                  <c:v>0.31548354758438002</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.47660280290617402</c:v>
+                  <c:v>0.34106575200003902</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.39450649571533197</c:v>
+                  <c:v>0.41967296579296998</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.402860165612139</c:v>
+                  <c:v>0.298160974332008</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.35401126224482399</c:v>
+                  <c:v>0.29767390967337898</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.41520661687536098</c:v>
+                  <c:v>0.31578381105881698</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.49894121007241299</c:v>
+                  <c:v>0.37605213323390702</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.33368409145810002</c:v>
+                  <c:v>0.38395355090640698</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.37769331173100001</c:v>
+                  <c:v>0.28569011375145298</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.406592331020454</c:v>
+                  <c:v>0.30012258756395199</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.507463275862163</c:v>
+                  <c:v>0.33473215558450597</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.59583957513141605</c:v>
+                  <c:v>0.33637256363578999</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.43967426195307502</c:v>
+                  <c:v>0.36341223979099502</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.45198329258863901</c:v>
+                  <c:v>0.31692925182253201</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.399460055093602</c:v>
+                  <c:v>0.29172687742801001</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.51256990102139299</c:v>
+                  <c:v>0.31289823443015602</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.60501732161820898</c:v>
+                  <c:v>0.35391991395177502</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.54887243829248999</c:v>
+                  <c:v>0.43344560836868201</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.38292584271786301</c:v>
+                  <c:v>0.31734208556408899</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.435004846703619</c:v>
+                  <c:v>0.31424827125614102</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.42275437149656198</c:v>
+                  <c:v>0.33197016554930697</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.34295308822097997</c:v>
+                  <c:v>0.32468058172910502</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.324122273984422</c:v>
+                  <c:v>0.33364088466312503</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.52436248093023197</c:v>
+                  <c:v>0.304181487828391</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.40247017228425602</c:v>
+                  <c:v>0.31352326851460599</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.41403389412561897</c:v>
+                  <c:v>0.32179285388442103</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.40365353339152299</c:v>
+                  <c:v>0.35374345985079603</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.29146785052115898</c:v>
+                  <c:v>0.347486093383649</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.43969155382789699</c:v>
+                  <c:v>0.31854250846096699</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.37309554665102601</c:v>
+                  <c:v>0.30903439309077002</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.50711748518002098</c:v>
+                  <c:v>0.30835350647196003</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.39758209605841199</c:v>
+                  <c:v>0.34739619005248801</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.307153510387424</c:v>
+                  <c:v>0.38245473120329598</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.41609788071136899</c:v>
+                  <c:v>0.30971091861567601</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.35314556643225198</c:v>
+                  <c:v>0.31047272540540899</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.47834638038849298</c:v>
+                  <c:v>0.32717809860769298</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.48019432192046102</c:v>
+                  <c:v>0.31961212388306798</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.313704022170325</c:v>
+                  <c:v>0.40319683149219099</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.42228312114072603</c:v>
+                  <c:v>0.29767030222994401</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.44956167925171397</c:v>
+                  <c:v>0.31965660568524801</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.38325682788877602</c:v>
+                  <c:v>0.32739448845157498</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.36384196863680202</c:v>
+                  <c:v>0.35400983319386897</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.33620683866743001</c:v>
+                  <c:v>0.33703831299854498</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.51750443950231295</c:v>
+                  <c:v>0.31840705393277802</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.45076573158218203</c:v>
+                  <c:v>0.32076956769547699</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.51887597537125496</c:v>
+                  <c:v>0.31571273818725398</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.33468176853638298</c:v>
+                  <c:v>0.417599717817627</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.283777040564475</c:v>
+                  <c:v>0.37916039715884797</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.52405789475764797</c:v>
+                  <c:v>0.30884713652989199</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.48017141924106099</c:v>
+                  <c:v>0.33241433352904598</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.52336653140541101</c:v>
+                  <c:v>0.33008739897635803</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.43672012521251702</c:v>
+                  <c:v>0.34414563749178001</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.442268458845402</c:v>
+                  <c:v>0.35624231946877899</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.46345017287036799</c:v>
+                  <c:v>0.32826270524218498</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.44504919510331797</c:v>
+                  <c:v>0.33467522840167802</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.48231181808260398</c:v>
+                  <c:v>0.33156579384030799</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.40899847760991298</c:v>
+                  <c:v>0.32501119604254403</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.40043436319504699</c:v>
+                  <c:v>0.372739663159599</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.47763495731497102</c:v>
+                  <c:v>0.331752646966812</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.45178989531049502</c:v>
+                  <c:v>0.330435093549311</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.48076368702466499</c:v>
+                  <c:v>0.34087889615691103</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.38881555389357503</c:v>
+                  <c:v>0.32492150922440399</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.377294891719197</c:v>
+                  <c:v>0.36019621533530599</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.44520636354202298</c:v>
+                  <c:v>0.324181707735401</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.433953709149346</c:v>
+                  <c:v>0.33032724935707702</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.47125235754929701</c:v>
+                  <c:v>0.34632648906639302</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.46359375973168598</c:v>
+                  <c:v>0.32371024503385298</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.26655812603788398</c:v>
+                  <c:v>0.36353744125743398</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.44545866590049199</c:v>
+                  <c:v>0.32070538273814603</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.47998211636836502</c:v>
+                  <c:v>0.33164888554933702</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>0.51156888461772798</c:v>
+                  <c:v>0.32316242947445101</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>0.43094613015765798</c:v>
+                  <c:v>0.34720874961433701</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>0.43776027218344699</c:v>
+                  <c:v>0.352512705514896</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>0.47137480424807598</c:v>
+                  <c:v>0.32826270524218498</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>0.48859234755268899</c:v>
+                  <c:v>0.32345374096148199</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>0.51159007501549403</c:v>
+                  <c:v>0.33022348673083901</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>0.48787950400278901</c:v>
+                  <c:v>0.42743430635287</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>0.50759126921351005</c:v>
+                  <c:v>0.460952166924532</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>0.482870421052145</c:v>
+                  <c:v>0.33107227538568001</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>0.27908205484584098</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>0.28210111715826902</c:v>
+                  <c:v>0.252636536801566</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>0.29284009223013402</c:v>
+                  <c:v>0.252636536801566</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>0.28404387297263001</c:v>
+                  <c:v>0.252636536801566</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>0.28210111715826902</c:v>
+                  <c:v>0.252636536801566</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>0.27908205484584098</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>0.28210111715826902</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>0.280083707706617</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>0.28903765304416201</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>0.28210111715826902</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>0.27908205484584098</c:v>
+                  <c:v>0.26269408006710199</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>0.29687050393995001</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>0.28210111715826902</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>0.28903765304416201</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>0.29687050393995001</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>0.27908205484584098</c:v>
+                  <c:v>0.27971493807262798</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>0.251705538015501</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>0.27592552612133697</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>0.27548985608790499</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>0.27592552612133697</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>0.27908205484584098</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>0.29687050393995001</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>0.280083707706617</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>0.28903765304416201</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>0.28210111715826902</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>0.27908205484584098</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>0.280083707706617</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>0.290852356237079</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>0.29714506150715603</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>0.29284009223013402</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>0.26324578907837998</c:v>
+                  <c:v>0.28982559926850798</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>0.269055159770829</c:v>
+                  <c:v>0.27774860688347602</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>0.30128863495855801</c:v>
+                  <c:v>0.27820975960179201</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>0.28241763311164902</c:v>
+                  <c:v>0.26739306719522199</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>0.269055159770829</c:v>
+                  <c:v>0.27774860688347602</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>0.26011921097167301</c:v>
+                  <c:v>0.28982559926850798</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>0.26006850772433598</c:v>
+                  <c:v>0.27084402851261402</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>0.29887789710888302</c:v>
+                  <c:v>0.27783497023416898</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>0.27548665640386899</c:v>
+                  <c:v>0.27774860688347602</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>0.269055159770829</c:v>
+                  <c:v>0.27084402851261402</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>0.262837421726904</c:v>
+                  <c:v>0.283396206524899</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>0.27075409756747398</c:v>
+                  <c:v>0.27640812690944999</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>0.27859861621707299</c:v>
+                  <c:v>0.27084402851261402</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>0.27429255014038101</c:v>
+                  <c:v>0.27783497023416898</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>0.28890006636399301</c:v>
+                  <c:v>0.27640812690944999</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>0.27602337111755199</c:v>
+                  <c:v>0.28408578461796902</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>0.286224249134863</c:v>
+                  <c:v>0.269213232350627</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>0.28971469134314698</c:v>
+                  <c:v>0.27084402851261402</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>0.27760240920355</c:v>
+                  <c:v>0.27783497023416898</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>0.286224249134863</c:v>
+                  <c:v>0.269213232350627</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>0.26011921097167301</c:v>
+                  <c:v>0.283396206524899</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>0.26006850772433598</c:v>
+                  <c:v>0.27084402851261402</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>0.27802248461982398</c:v>
+                  <c:v>0.27774860688347602</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>0.27548665640386899</c:v>
+                  <c:v>0.27774860688347602</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>0.269055159770829</c:v>
+                  <c:v>0.27084402851261402</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>0.25479336055096402</c:v>
+                  <c:v>0.27530994130150899</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>0.26413176773171398</c:v>
+                  <c:v>0.27277592276346202</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>0.30242755780025798</c:v>
+                  <c:v>0.27534959089807098</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>0.30152578001913999</c:v>
+                  <c:v>0.28607552746174503</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>0.26623196504770202</c:v>
+                  <c:v>0.27277592276346202</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>0.27326192994075199</c:v>
+                  <c:v>0.261888175276416</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>0.26992410868386502</c:v>
+                  <c:v>0.25453491138810302</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>0.274608552513598</c:v>
+                  <c:v>0.27727225133879102</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>0.31138083432047398</c:v>
+                  <c:v>0.26586804994690699</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>0.26992410868386502</c:v>
+                  <c:v>0.25370177787999798</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>0.243831240290903</c:v>
+                  <c:v>0.25056987556083099</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>0.26807776579090098</c:v>
+                  <c:v>0.25754431805882499</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>0.249418150583642</c:v>
+                  <c:v>0.25560778641952098</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>0.29616610941524801</c:v>
+                  <c:v>0.27099584512950697</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>0.261254740169305</c:v>
+                  <c:v>0.25754431805882499</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>0.256101688270163</c:v>
+                  <c:v>0.26906665372308503</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>0.25302573550588098</c:v>
+                  <c:v>0.25754431805882499</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>0.25670534043038601</c:v>
+                  <c:v>0.25891619682823203</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>0.28229909803548497</c:v>
+                  <c:v>0.27752438387665102</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>0.24634312933815899</c:v>
+                  <c:v>0.25051573913428699</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>0.25858609409455802</c:v>
+                  <c:v>0.26685855378929102</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>0.248895862437094</c:v>
+                  <c:v>0.25147498826157999</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>0.25914944782371602</c:v>
+                  <c:v>0.248675513922231</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>0.28584209236642999</c:v>
+                  <c:v>0.26797155556609098</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>0.252113314450154</c:v>
+                  <c:v>0.25056987556083099</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>0.243831240290903</c:v>
+                  <c:v>0.25217926558202602</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>0.26738775844514201</c:v>
+                  <c:v>0.25754431805882499</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>0.249418150583642</c:v>
+                  <c:v>0.26197308410125097</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>0.29616610941524801</c:v>
+                  <c:v>0.27099584512950697</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>0.26176463645043702</c:v>
+                  <c:v>0.25754431805882499</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>0.28273061331134902</c:v>
+                  <c:v>0.25869426228471099</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>0.26884915494106099</c:v>
+                  <c:v>0.25484461017386301</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>0.27913188835944902</c:v>
+                  <c:v>0.25744251555153103</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>0.33242961735858201</c:v>
+                  <c:v>0.27770513080127601</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>0.267274006954071</c:v>
+                  <c:v>0.259755985970683</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>0.30232357966606999</c:v>
+                  <c:v>0.27056747557503302</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>0.305431749713381</c:v>
+                  <c:v>0.28746209246488003</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>0.30186772221351399</c:v>
+                  <c:v>0.296845517031258</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>0.309216346135676</c:v>
+                  <c:v>0.27061357830317301</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>0.30469412513215899</c:v>
+                  <c:v>0.29244224297305998</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>0.28600033288788701</c:v>
+                  <c:v>0.263242349436276</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>0.298623962247347</c:v>
+                  <c:v>0.28970964905163399</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>0.30065738125779301</c:v>
+                  <c:v>0.301946215761005</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>0.28706924961189301</c:v>
+                  <c:v>0.27562403905382998</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>0.30530712890619899</c:v>
+                  <c:v>0.28970964905163399</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>0.276675483746949</c:v>
+                  <c:v>0.27120751429860801</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>0.27685023490671101</c:v>
+                  <c:v>0.29643946356996698</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>0.28520744954126098</c:v>
+                  <c:v>0.31332062754843099</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>0.29334262467885602</c:v>
+                  <c:v>0.30029421293898501</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>0.290572587545045</c:v>
+                  <c:v>0.28765157443116701</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>0.25263142185441101</c:v>
+                  <c:v>0.273868310164047</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>0.27490645925981999</c:v>
+                  <c:v>0.28776074813869301</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>0.29285940168978603</c:v>
+                  <c:v>0.305247812657165</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>0.32686148681863397</c:v>
+                  <c:v>0.30748074575432599</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>0.271673434584076</c:v>
+                  <c:v>0.27315642909837201</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>0.30301323268311398</c:v>
+                  <c:v>0.27056747557503302</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>0.298623962247347</c:v>
+                  <c:v>0.28765157443116701</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>0.30065738125779301</c:v>
+                  <c:v>0.301946215761005</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>0.29327606783784499</c:v>
+                  <c:v>0.27591888817575499</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>0.30436835571097398</c:v>
+                  <c:v>0.28870435870163202</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>0.28563603131348902</c:v>
+                  <c:v>0.27401187819219502</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>0.31148386298576097</c:v>
+                  <c:v>0.30426467027366799</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>0.31825506586361602</c:v>
+                  <c:v>0.30895053411824702</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>0.32484670071014299</c:v>
+                  <c:v>0.30430121767467799</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>0.305226889057159</c:v>
+                  <c:v>0.29630766965088301</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>0.32618388061047299</c:v>
+                  <c:v>0.28798007892181798</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>0.34665819811805498</c:v>
+                  <c:v>0.27587922890587802</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>0.37237189788667502</c:v>
+                  <c:v>0.27960307799249101</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>0.39089852577344902</c:v>
+                  <c:v>0.26833828092114398</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>0.32010293904556097</c:v>
+                  <c:v>0.28289113061168097</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>0.308428414187633</c:v>
+                  <c:v>0.29274056102171497</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>0.31390624755419499</c:v>
+                  <c:v>0.29377828795785399</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>0.34601351999861502</c:v>
+                  <c:v>0.282558161968613</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>0.40372165438419699</c:v>
+                  <c:v>0.26994394094541002</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>0.303487818892683</c:v>
+                  <c:v>0.28976246975248798</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>0.31706052394485401</c:v>
+                  <c:v>0.30303183896928299</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>0.32223378272305098</c:v>
+                  <c:v>0.28868519403444498</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>0.36209356015608601</c:v>
+                  <c:v>0.29464289602997101</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>0.41043635406866202</c:v>
+                  <c:v>0.29295849166909599</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>0.31484773710178499</c:v>
+                  <c:v>0.29371635570305699</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>0.30744518260878401</c:v>
+                  <c:v>0.293792930194965</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>0.309500856778893</c:v>
+                  <c:v>0.30806858214166</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>0.354328077842885</c:v>
+                  <c:v>0.30731942416160102</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>0.40336141599032099</c:v>
+                  <c:v>0.30864238227463903</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>0.29715957977393098</c:v>
+                  <c:v>0.31091027661380199</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>0.29365560311327799</c:v>
+                  <c:v>0.29403321019075701</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>0.32698284995719401</c:v>
+                  <c:v>0.28761162231368298</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>0.36235673342550001</c:v>
+                  <c:v>0.277462972157344</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>0.39556719807637097</c:v>
+                  <c:v>0.26247662323435</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>0.30674942722387799</c:v>
+                  <c:v>0.29143328108805799</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>0.32117015806668597</c:v>
+                  <c:v>0.29791218307756001</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>0.36074547622271302</c:v>
+                  <c:v>0.29734490021064103</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>0.38155125981672799</c:v>
+                  <c:v>0.31400630302330101</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>0.38416946363305299</c:v>
+                  <c:v>0.30800543546139297</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>0.33367827399033601</c:v>
+                  <c:v>0.28857135242398502</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>0.324280061256917</c:v>
+                  <c:v>0.30213418505164502</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>0.31572778582600097</c:v>
+                  <c:v>0.31279273825020298</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>0.42024836162391199</c:v>
+                  <c:v>0.30681562995407002</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>0.45252943389103101</c:v>
+                  <c:v>0.30928101504940603</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>0.37008309539387302</c:v>
+                  <c:v>0.30062601318643001</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>0.32525724277269202</c:v>
+                  <c:v>0.29149717366176398</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>0.40264042083440998</c:v>
+                  <c:v>0.35019850683061599</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>0.36535549359685499</c:v>
+                  <c:v>0.33158784972500599</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>0.44176556848297199</c:v>
+                  <c:v>0.31918114240798001</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>0.33148347054567001</c:v>
+                  <c:v>0.294920989672871</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>0.32317235427579799</c:v>
+                  <c:v>0.33095518933664497</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>0.36756308554096101</c:v>
+                  <c:v>0.34962306017762002</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>0.434786525394808</c:v>
+                  <c:v>0.32662868514818</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>0.53161244189241297</c:v>
+                  <c:v>0.332197570925654</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>0.35494564523189198</c:v>
+                  <c:v>0.33904772524520999</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>0.32543059416586601</c:v>
+                  <c:v>0.319970774167049</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>0.33851132412414597</c:v>
+                  <c:v>0.35098775076587502</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>0.41669598268602198</c:v>
+                  <c:v>0.33656766111655101</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>0.54105057640294596</c:v>
+                  <c:v>0.335542013241176</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>0.34911750251922602</c:v>
+                  <c:v>0.318365008433383</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>0.316316290100221</c:v>
+                  <c:v>0.30009216078479101</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>0.33625770656102499</c:v>
+                  <c:v>0.30239605968093602</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>0.41194222853261597</c:v>
+                  <c:v>0.30721627804877799</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>0.45366922743698601</c:v>
+                  <c:v>0.284952702667914</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>0.36663688236669201</c:v>
+                  <c:v>0.30054715802458198</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>0.32217365764924499</c:v>
+                  <c:v>0.32391762832128101</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>0.35611160600453901</c:v>
+                  <c:v>0.32276920965919298</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>0.380014867498984</c:v>
+                  <c:v>0.30122847261427899</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>0.48200711033536497</c:v>
+                  <c:v>0.34964034731711802</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>0.42230797443635099</c:v>
+                  <c:v>0.319667743995668</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>0.34169612278457701</c:v>
+                  <c:v>0.309686082636766</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>0.43968057451862902</c:v>
+                  <c:v>0.31777664096501201</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>0.49781814841562499</c:v>
+                  <c:v>0.311560099079633</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>0.41185914652003403</c:v>
+                  <c:v>0.34282285058241402</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>0.33820620150344199</c:v>
+                  <c:v>0.31286978971229401</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>0.30321925428781499</c:v>
+                  <c:v>0.30761700324200503</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>0.34210136506230399</c:v>
+                  <c:v>0.30866340125163</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>0.47816230814788602</c:v>
+                  <c:v>0.32348273709826803</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>0.50990828442398395</c:v>
+                  <c:v>0.33838650463620501</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>0.34138868660702498</c:v>
+                  <c:v>0.30791889416197599</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>0.296016408732513</c:v>
+                  <c:v>0.30573868014556699</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>0.34040366921503501</c:v>
+                  <c:v>0.30890817176069002</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>0.51578504063901698</c:v>
+                  <c:v>0.32462228235511498</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>0.436076387410743</c:v>
+                  <c:v>0.39421283231764698</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>0.28874180234010399</c:v>
+                  <c:v>0.299320412629421</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>0.29597156470133101</c:v>
+                  <c:v>0.29727614146611803</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>0.34380923530916502</c:v>
+                  <c:v>0.31260616116162998</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>0.48170355655365499</c:v>
+                  <c:v>0.34804921318491699</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>0.413423754093725</c:v>
+                  <c:v>0.39310795213664002</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>0.31967859361245798</c:v>
+                  <c:v>0.30493364435421499</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>0.30962452493766901</c:v>
+                  <c:v>0.30761700324200503</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>0.42361790151533801</c:v>
+                  <c:v>0.31457152530990901</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>0.46664727794414901</c:v>
+                  <c:v>0.31459795920525402</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>0.40419476074160698</c:v>
+                  <c:v>0.33789327246290801</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>0.33612204632945603</c:v>
+                  <c:v>0.30647590964473898</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>0.30652797435807499</c:v>
+                  <c:v>0.31589747512488697</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>0.36319725059355501</c:v>
+                  <c:v>0.31796818967156298</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>0.46221807311747498</c:v>
+                  <c:v>0.33945183872478202</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>0.44839626369000901</c:v>
+                  <c:v>0.344580503730742</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>0.39106107812384899</c:v>
+                  <c:v>0.329970239382953</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>0.49110550637059203</c:v>
+                  <c:v>0.29858595145967998</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>0.52274899876555003</c:v>
+                  <c:v>0.32185802894027399</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>0.35601183160884797</c:v>
+                  <c:v>0.30812205017968097</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>0.413097065071661</c:v>
+                  <c:v>0.33638058105409502</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>0.54085678481904798</c:v>
+                  <c:v>0.30524067445305703</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>0.47379843302817698</c:v>
+                  <c:v>0.30054403431441401</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>0.51145522932501697</c:v>
+                  <c:v>0.309499700361903</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>0.31909859282389302</c:v>
+                  <c:v>0.32279349370572802</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>0.42229030229789799</c:v>
+                  <c:v>0.31300437467612102</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>0.493332679090425</c:v>
+                  <c:v>0.30629245435385</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>0.41563843638645698</c:v>
+                  <c:v>0.30780999608174398</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>0.50848676675055604</c:v>
+                  <c:v>0.32618672279718403</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>0.40215611312245803</c:v>
+                  <c:v>0.33901524681754303</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>0.47499800076356302</c:v>
+                  <c:v>0.34467734557605201</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>0.43887810688027201</c:v>
+                  <c:v>0.31717229740089098</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>0.39863748489481798</c:v>
+                  <c:v>0.298909063304797</c:v>
                 </c:pt>
                 <c:pt idx="496">
-                  <c:v>0.474729990426906</c:v>
+                  <c:v>0.31507436303407799</c:v>
                 </c:pt>
                 <c:pt idx="497">
-                  <c:v>0.39785092429271302</c:v>
+                  <c:v>0.332940081081742</c:v>
                 </c:pt>
                 <c:pt idx="498">
-                  <c:v>0.46745505283247801</c:v>
+                  <c:v>0.35856033517175701</c:v>
                 </c:pt>
                 <c:pt idx="499">
-                  <c:v>0.42388150749009101</c:v>
+                  <c:v>0.31522740178647002</c:v>
                 </c:pt>
                 <c:pt idx="500">
-                  <c:v>0.48603138289571801</c:v>
+                  <c:v>0.29279344193875301</c:v>
                 </c:pt>
                 <c:pt idx="501">
-                  <c:v>0.52230894508918602</c:v>
+                  <c:v>0.32146974372494702</c:v>
                 </c:pt>
                 <c:pt idx="502">
-                  <c:v>0.33131802714198699</c:v>
+                  <c:v>0.31123626077497801</c:v>
                 </c:pt>
                 <c:pt idx="503">
-                  <c:v>0.40647757479003299</c:v>
+                  <c:v>0.30186338385900602</c:v>
                 </c:pt>
                 <c:pt idx="504">
-                  <c:v>0.51546889181832201</c:v>
+                  <c:v>0.305037315162619</c:v>
                 </c:pt>
                 <c:pt idx="505">
-                  <c:v>0.48118901020911298</c:v>
+                  <c:v>0.30927522710373601</c:v>
                 </c:pt>
                 <c:pt idx="506">
-                  <c:v>0.53570232158043796</c:v>
+                  <c:v>0.31559487452969998</c:v>
                 </c:pt>
                 <c:pt idx="507">
-                  <c:v>0.34312385172882298</c:v>
+                  <c:v>0.36356306071495997</c:v>
                 </c:pt>
                 <c:pt idx="508">
-                  <c:v>0.49000996294645799</c:v>
+                  <c:v>0.32832702885326998</c:v>
                 </c:pt>
                 <c:pt idx="509">
-                  <c:v>0.53475342199451004</c:v>
+                  <c:v>0.30431513444793201</c:v>
                 </c:pt>
                 <c:pt idx="510">
-                  <c:v>0.49308854106864702</c:v>
+                  <c:v>0.327484168470068</c:v>
                 </c:pt>
                 <c:pt idx="511">
-                  <c:v>0.516766932289355</c:v>
+                  <c:v>0.33814498471753401</c:v>
                 </c:pt>
                 <c:pt idx="512">
-                  <c:v>0.390760167221125</c:v>
+                  <c:v>0.33755497048573302</c:v>
                 </c:pt>
                 <c:pt idx="513">
-                  <c:v>0.36884216200717002</c:v>
+                  <c:v>0.315526027043459</c:v>
                 </c:pt>
                 <c:pt idx="514">
-                  <c:v>0.47128402713600298</c:v>
+                  <c:v>0.32973830602020299</c:v>
                 </c:pt>
                 <c:pt idx="515">
-                  <c:v>0.487797972306872</c:v>
+                  <c:v>0.341121049075994</c:v>
                 </c:pt>
                 <c:pt idx="516">
-                  <c:v>0.50245809159195798</c:v>
+                  <c:v>0.32779073649836099</c:v>
                 </c:pt>
                 <c:pt idx="517">
-                  <c:v>0.39200008571421802</c:v>
+                  <c:v>0.33067032877697</c:v>
                 </c:pt>
                 <c:pt idx="518">
-                  <c:v>0.34600761578502298</c:v>
+                  <c:v>0.33202665287274302</c:v>
                 </c:pt>
                 <c:pt idx="519">
-                  <c:v>0.48690244700361401</c:v>
+                  <c:v>0.33654118243009201</c:v>
                 </c:pt>
                 <c:pt idx="520">
-                  <c:v>0.43708829562256102</c:v>
+                  <c:v>0.33019521676379898</c:v>
                 </c:pt>
                 <c:pt idx="521">
-                  <c:v>0.46760265494407299</c:v>
+                  <c:v>0.32434426223542201</c:v>
                 </c:pt>
                 <c:pt idx="522">
-                  <c:v>0.46815272429708099</c:v>
+                  <c:v>0.33154383064010101</c:v>
                 </c:pt>
                 <c:pt idx="523">
-                  <c:v>0.33258492059063499</c:v>
+                  <c:v>0.35734452063653699</c:v>
                 </c:pt>
                 <c:pt idx="524">
-                  <c:v>0.45722674909382899</c:v>
+                  <c:v>0.33005584637905999</c:v>
                 </c:pt>
                 <c:pt idx="525">
-                  <c:v>0.41857976946277697</c:v>
+                  <c:v>0.33437591649470799</c:v>
                 </c:pt>
                 <c:pt idx="526">
-                  <c:v>0.46725913930105201</c:v>
+                  <c:v>0.33317723346003397</c:v>
                 </c:pt>
                 <c:pt idx="527">
-                  <c:v>0.47171360705873</c:v>
+                  <c:v>0.32479917792255197</c:v>
                 </c:pt>
                 <c:pt idx="528">
-                  <c:v>0.42283378039987901</c:v>
+                  <c:v>0.353368802135967</c:v>
                 </c:pt>
                 <c:pt idx="529">
-                  <c:v>0.45607367269260302</c:v>
+                  <c:v>0.33876589031818399</c:v>
                 </c:pt>
                 <c:pt idx="530">
-                  <c:v>0.490390688308529</c:v>
+                  <c:v>0.33062173960198299</c:v>
                 </c:pt>
                 <c:pt idx="531">
-                  <c:v>0.49534946468952301</c:v>
+                  <c:v>0.33011447973415398</c:v>
                 </c:pt>
                 <c:pt idx="532">
-                  <c:v>0.39523780082319498</c:v>
+                  <c:v>0.32693753456883801</c:v>
                 </c:pt>
                 <c:pt idx="533">
-                  <c:v>0.36874947743462799</c:v>
+                  <c:v>0.32636907365817702</c:v>
                 </c:pt>
                 <c:pt idx="534">
-                  <c:v>0.50968571144717001</c:v>
+                  <c:v>0.32914210719586601</c:v>
                 </c:pt>
                 <c:pt idx="535">
-                  <c:v>0.487637684038502</c:v>
+                  <c:v>0.341756259096193</c:v>
                 </c:pt>
                 <c:pt idx="536">
-                  <c:v>0.48124566818182501</c:v>
+                  <c:v>0.34309242633356701</c:v>
                 </c:pt>
                 <c:pt idx="537">
-                  <c:v>0.44180276851282002</c:v>
+                  <c:v>0.36567572846338198</c:v>
                 </c:pt>
                 <c:pt idx="538">
-                  <c:v>0.42374820671672098</c:v>
+                  <c:v>0.375033793881213</c:v>
                 </c:pt>
                 <c:pt idx="539">
-                  <c:v>0.47270218963100902</c:v>
+                  <c:v>0.34567561671789099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4226,1624 +4223,1624 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="540"/>
                 <c:pt idx="0">
-                  <c:v>0.230871464601549</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28118075530382303</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28797967558222598</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.29622693723684901</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.280961351915192</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.230871464601549</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.29218912481738402</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28431545210000397</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.29178768037750502</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.280961351915192</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.22537563332522301</c:v>
+                  <c:v>0.29177789406702398</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.29158805410059702</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.28431545210000297</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.28766397367830299</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.27872858330328798</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.222924898621704</c:v>
+                  <c:v>0.29177789406702398</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.28504574679056799</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.27872858330328798</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.28541383706114198</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.28972473282570499</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.230871464601549</c:v>
+                  <c:v>0.29177789406702398</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.29218912481738402</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.28431545210000397</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.28766397367830299</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.280961351915192</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.230871464601549</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.243993563023817</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.28797967558222598</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.30812691871078901</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.280961351915192</c:v>
+                  <c:v>0.28967246703070498</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.28887648444328301</c:v>
+                  <c:v>0.30472772135951998</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.30482422019591898</c:v>
+                  <c:v>0.28390341875282898</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.33358575585801697</c:v>
+                  <c:v>0.28555472859882802</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.51360679039465695</c:v>
+                  <c:v>0.29399938681307702</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.28806163310435001</c:v>
+                  <c:v>0.29004322719453801</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.26838365839389999</c:v>
+                  <c:v>0.29678986961569198</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.30482422019591898</c:v>
+                  <c:v>0.30016469898785397</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.34720276122322702</c:v>
+                  <c:v>0.28470757114638501</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.50677577666535101</c:v>
+                  <c:v>0.307975782957713</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.30482422019591898</c:v>
+                  <c:v>0.295898661598678</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.28480115937228501</c:v>
+                  <c:v>0.28724897552356199</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.304552173223823</c:v>
+                  <c:v>0.30016469898785397</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.293571641819384</c:v>
+                  <c:v>0.28390341875282898</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.43400818076257902</c:v>
+                  <c:v>0.29862923893040499</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.28806163310435001</c:v>
+                  <c:v>0.30016469898785397</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.27009145923377997</c:v>
+                  <c:v>0.28724897552356199</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.25558642237611401</c:v>
+                  <c:v>0.30391057520485598</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.289422224381989</c:v>
+                  <c:v>0.28390341875282898</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.35985320207511501</c:v>
+                  <c:v>0.29603584898152502</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.26760950259336702</c:v>
+                  <c:v>0.30391057520485598</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.26838365839389999</c:v>
+                  <c:v>0.29678986961569198</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.30482422019591898</c:v>
+                  <c:v>0.30016469898785397</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.35168907889937301</c:v>
+                  <c:v>0.28470757114638501</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.50677577666535101</c:v>
+                  <c:v>0.30347273898129801</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.30482422019591898</c:v>
+                  <c:v>0.295898661598678</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.281212387879333</c:v>
+                  <c:v>0.29678986961569198</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.29858783231898101</c:v>
+                  <c:v>0.28529616735380198</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.38782258975288902</c:v>
+                  <c:v>0.26732724940464297</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.54122911727934397</c:v>
+                  <c:v>0.32539832728496398</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.29858783231898101</c:v>
+                  <c:v>0.28529616735380198</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.29618660078028702</c:v>
+                  <c:v>0.27887909472851202</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.28535533826673498</c:v>
+                  <c:v>0.276799443858252</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.37512252742446001</c:v>
+                  <c:v>0.27648921927283998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.50653302674770095</c:v>
+                  <c:v>0.28673181160968098</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.29233069525598898</c:v>
+                  <c:v>0.276799443858252</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.23938326620157199</c:v>
+                  <c:v>0.27028545873687598</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.29060264427979698</c:v>
+                  <c:v>0.28132272585592299</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.35905534204995698</c:v>
+                  <c:v>0.28132272585592299</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.50694136685032698</c:v>
+                  <c:v>0.29087466587620098</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.319353190780505</c:v>
+                  <c:v>0.28345993907629002</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.24178245557568401</c:v>
+                  <c:v>0.27515324628608201</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.28068464815181499</c:v>
+                  <c:v>0.28345993907629002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.345872023190749</c:v>
+                  <c:v>0.27479333124900601</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.51031621784841097</c:v>
+                  <c:v>0.28654458411725697</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.24608688288196301</c:v>
+                  <c:v>0.28345993907629002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.22793266663112499</c:v>
+                  <c:v>0.27367485624783799</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.26682414370150698</c:v>
+                  <c:v>0.27385022147995097</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.294039044677259</c:v>
+                  <c:v>0.27479333124900601</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.44195003137699601</c:v>
+                  <c:v>0.281025649147297</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.24360311453102701</c:v>
+                  <c:v>0.27385022147995097</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.26599827991908698</c:v>
+                  <c:v>0.27028545873687598</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.29233069525598898</c:v>
+                  <c:v>0.276799443858252</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.35905534204995698</c:v>
+                  <c:v>0.28132272585592299</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.50653302674770095</c:v>
+                  <c:v>0.29087466587620098</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.319353190780505</c:v>
+                  <c:v>0.27714509269370002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.26338495639158199</c:v>
+                  <c:v>0.27737717214931401</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.35909157931285202</c:v>
+                  <c:v>0.28067283732090997</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.36601285152200103</c:v>
+                  <c:v>0.27311986909900898</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.56015550367496103</c:v>
+                  <c:v>0.29131516848509598</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.35909157931285202</c:v>
+                  <c:v>0.276495204158687</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.32573159353234399</c:v>
+                  <c:v>0.28896320027019701</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.38712656424495701</c:v>
+                  <c:v>0.28700945755678497</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.45200114720873602</c:v>
+                  <c:v>0.27588764666258803</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.55365224700599502</c:v>
+                  <c:v>0.28789524970395802</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.38799110001520198</c:v>
+                  <c:v>0.28825714036050198</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.32565265874816601</c:v>
+                  <c:v>0.29349557109597801</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.39088282417667097</c:v>
+                  <c:v>0.29820202094655601</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.44301011164278598</c:v>
+                  <c:v>0.27156921001984502</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.54109701756442297</c:v>
+                  <c:v>0.28634478754005299</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.36212326809997297</c:v>
+                  <c:v>0.29394524109824699</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.29834754112037198</c:v>
+                  <c:v>0.29801192305152902</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.37806701237123802</c:v>
+                  <c:v>0.28966667297294502</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.40105355719589503</c:v>
+                  <c:v>0.276698794511479</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.55348052308710105</c:v>
+                  <c:v>0.276698794511479</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.340611070415826</c:v>
+                  <c:v>0.292272633985175</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.275332697511179</c:v>
+                  <c:v>0.301784073925983</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.35038362099700199</c:v>
+                  <c:v>0.30065699319887501</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.34984366874038902</c:v>
+                  <c:v>0.27169837016453902</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.448490584675723</c:v>
+                  <c:v>0.276698794511479</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.33578777307728402</c:v>
+                  <c:v>0.29982073914910601</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.32315031926613702</c:v>
+                  <c:v>0.29097452366920601</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.39088282417667097</c:v>
+                  <c:v>0.28519093719463501</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.44301011164278598</c:v>
+                  <c:v>0.27156921001984502</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.54109701756442297</c:v>
+                  <c:v>0.28142725131983298</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.37986253614412602</c:v>
+                  <c:v>0.28779689820686599</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.33489978713940599</c:v>
+                  <c:v>0.29046122783978601</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.40645729794614099</c:v>
+                  <c:v>0.29998577405683902</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.44952270261670901</c:v>
+                  <c:v>0.273650289479901</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.549434659972863</c:v>
+                  <c:v>0.27722244197078899</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.39373824813521902</c:v>
+                  <c:v>0.28884293837857</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.34751826725878698</c:v>
+                  <c:v>0.30905429569835802</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.28826348130185198</c:v>
+                  <c:v>0.29678297688495903</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.46952770693185403</c:v>
+                  <c:v>0.28896427942483799</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.55374253532984097</c:v>
+                  <c:v>0.299484714296326</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.297199947839559</c:v>
+                  <c:v>0.30159745926362802</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.31590030112811002</c:v>
+                  <c:v>0.303965227446368</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.38191179670792502</c:v>
+                  <c:v>0.300212615252058</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.42764413467144202</c:v>
+                  <c:v>0.28692663726845502</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.56907911339364503</c:v>
+                  <c:v>0.28890857665436798</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.356689198456136</c:v>
+                  <c:v>0.31228241674120399</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.31709178779903902</c:v>
+                  <c:v>0.30182186067774602</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.361478619057652</c:v>
+                  <c:v>0.297779919874123</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.41885222343760597</c:v>
+                  <c:v>0.29418810360998499</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.60540761105754604</c:v>
+                  <c:v>0.29193242597770902</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.35500955104183202</c:v>
+                  <c:v>0.30010836272674402</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.31650508532780303</c:v>
+                  <c:v>0.289892769111599</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.33326195620536297</c:v>
+                  <c:v>0.294845976396647</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.41832514962999301</c:v>
+                  <c:v>0.29262171671468101</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.66065542488080997</c:v>
+                  <c:v>0.30113674437604798</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.34812506243962399</c:v>
+                  <c:v>0.30030180210465102</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.33908031533642702</c:v>
+                  <c:v>0.30905429569835802</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.28361818251027698</c:v>
+                  <c:v>0.30146240814214897</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.40980108556598199</c:v>
+                  <c:v>0.28607698094561201</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.54962523034045796</c:v>
+                  <c:v>0.28796440505752302</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.37081760093470101</c:v>
+                  <c:v>0.30637166534666199</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.337271854234096</c:v>
+                  <c:v>0.29241348751184698</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.35851378590894001</c:v>
+                  <c:v>0.31239321030918599</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.546464354821388</c:v>
+                  <c:v>0.31756194906155599</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.48476895133002701</c:v>
+                  <c:v>0.30077805802768798</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.30643187521183402</c:v>
+                  <c:v>0.30603783318677202</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.32231994796887398</c:v>
+                  <c:v>0.294301129945299</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.50469442527966901</c:v>
+                  <c:v>0.29480781663282102</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.57657277818593999</c:v>
+                  <c:v>0.32069466840073202</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.59542660824049198</c:v>
+                  <c:v>0.322247479162383</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.39382001731239602</c:v>
+                  <c:v>0.30268547032936</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.27935152061398899</c:v>
+                  <c:v>0.30588251905485497</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.40689314630914097</c:v>
+                  <c:v>0.30678201220930401</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.48553241917949902</c:v>
+                  <c:v>0.29756100730781798</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.61372352991229995</c:v>
+                  <c:v>0.340341961596414</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.35701975312807499</c:v>
+                  <c:v>0.30072894325219401</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.27997233745258598</c:v>
+                  <c:v>0.30641388587593199</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.40598676164081898</c:v>
+                  <c:v>0.298771479419222</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.45459688480194799</c:v>
+                  <c:v>0.31413063928117302</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.53243322692928996</c:v>
+                  <c:v>0.34612413414808701</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.34753029728221602</c:v>
+                  <c:v>0.305575102472319</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.29683013296549299</c:v>
+                  <c:v>0.30459541019823699</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.362780213862268</c:v>
+                  <c:v>0.29906655305177299</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.40407169030499301</c:v>
+                  <c:v>0.34211209892195399</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.453960685755114</c:v>
+                  <c:v>0.34534907880948701</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.33590569204739701</c:v>
+                  <c:v>0.299931765550564</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.30601688575620201</c:v>
+                  <c:v>0.30768080034149398</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.38771409004882201</c:v>
+                  <c:v>0.29480781663282102</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.46360903780085</c:v>
+                  <c:v>0.30414574213833001</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.59779626081345405</c:v>
+                  <c:v>0.32633523581649698</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.37034370058025601</c:v>
+                  <c:v>0.302686327100396</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.34000911091517</c:v>
+                  <c:v>0.28861862469883498</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.45630091669273998</c:v>
+                  <c:v>0.30240592208776801</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.53125508519521503</c:v>
+                  <c:v>0.385806245281407</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>0.52143407804714903</c:v>
+                  <c:v>0.34547277377528801</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>0.44464487234655797</c:v>
+                  <c:v>0.29480978695059601</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>0.37197974119704402</c:v>
+                  <c:v>0.30395712343315401</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>0.52557963611776704</c:v>
+                  <c:v>0.33523745246068098</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>0.59470912090533901</c:v>
+                  <c:v>0.34625677294628998</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>0.480522601648464</c:v>
+                  <c:v>0.420357465393567</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>0.46033785563785701</c:v>
+                  <c:v>0.31321872824153302</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>0.42747527647047201</c:v>
+                  <c:v>0.29684371457277903</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>0.48335322989867902</c:v>
+                  <c:v>0.31865722551231201</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>0.51002887371350103</c:v>
+                  <c:v>0.32236417768822001</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>0.38834278475677098</c:v>
+                  <c:v>0.32503182208596798</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>0.38156031435952897</c:v>
+                  <c:v>0.31276164859310202</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>0.35707153551235599</c:v>
+                  <c:v>0.298215174103235</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>0.43614550448334899</c:v>
+                  <c:v>0.31548354758438002</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>0.47660280290617402</c:v>
+                  <c:v>0.34106575200003902</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>0.39450649571533197</c:v>
+                  <c:v>0.41967296579296998</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>0.402860165612139</c:v>
+                  <c:v>0.298160974332008</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>0.35401126224482399</c:v>
+                  <c:v>0.29767390967337898</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>0.41520661687536098</c:v>
+                  <c:v>0.31578381105881698</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>0.49894121007241299</c:v>
+                  <c:v>0.37605213323390702</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>0.33368409145810002</c:v>
+                  <c:v>0.38395355090640698</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>0.37769331173100001</c:v>
+                  <c:v>0.28569011375145298</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>0.406592331020454</c:v>
+                  <c:v>0.30012258756395199</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>0.507463275862163</c:v>
+                  <c:v>0.33473215558450597</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>0.59583957513141605</c:v>
+                  <c:v>0.33637256363578999</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>0.43967426195307502</c:v>
+                  <c:v>0.36341223979099502</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.45198329258863901</c:v>
+                  <c:v>0.31692925182253201</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.399460055093602</c:v>
+                  <c:v>0.29172687742801001</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>0.51256990102139299</c:v>
+                  <c:v>0.31289823443015602</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>0.60501732161820898</c:v>
+                  <c:v>0.35391991395177502</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>0.54887243829248999</c:v>
+                  <c:v>0.43344560836868201</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>0.38292584271786301</c:v>
+                  <c:v>0.31734208556408899</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>0.435004846703619</c:v>
+                  <c:v>0.31424827125614102</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>0.42275437149656198</c:v>
+                  <c:v>0.33197016554930697</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>0.34295308822097997</c:v>
+                  <c:v>0.32468058172910502</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>0.324122273984422</c:v>
+                  <c:v>0.33364088466312503</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>0.52436248093023197</c:v>
+                  <c:v>0.304181487828391</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>0.40247017228425602</c:v>
+                  <c:v>0.31352326851460599</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>0.41403389412561897</c:v>
+                  <c:v>0.32179285388442103</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>0.40365353339152299</c:v>
+                  <c:v>0.35374345985079603</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>0.29146785052115898</c:v>
+                  <c:v>0.347486093383649</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>0.43969155382789699</c:v>
+                  <c:v>0.31854250846096699</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>0.37309554665102601</c:v>
+                  <c:v>0.30903439309077002</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>0.50711748518002098</c:v>
+                  <c:v>0.30835350647196003</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>0.39758209605841199</c:v>
+                  <c:v>0.34739619005248801</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>0.307153510387424</c:v>
+                  <c:v>0.38245473120329598</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>0.41609788071136899</c:v>
+                  <c:v>0.30971091861567601</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>0.35314556643225198</c:v>
+                  <c:v>0.31047272540540899</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>0.47834638038849298</c:v>
+                  <c:v>0.32717809860769298</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>0.48019432192046102</c:v>
+                  <c:v>0.31961212388306798</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>0.313704022170325</c:v>
+                  <c:v>0.40319683149219099</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>0.42228312114072603</c:v>
+                  <c:v>0.29767030222994401</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>0.44956167925171397</c:v>
+                  <c:v>0.31965660568524801</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>0.38325682788877602</c:v>
+                  <c:v>0.32739448845157498</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>0.36384196863680202</c:v>
+                  <c:v>0.35400983319386897</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>0.33620683866743001</c:v>
+                  <c:v>0.33703831299854498</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>0.51750443950231295</c:v>
+                  <c:v>0.31840705393277802</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>0.45076573158218203</c:v>
+                  <c:v>0.32076956769547699</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>0.51887597537125496</c:v>
+                  <c:v>0.31571273818725398</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>0.33468176853638298</c:v>
+                  <c:v>0.417599717817627</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>0.283777040564475</c:v>
+                  <c:v>0.37916039715884797</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>0.52405789475764797</c:v>
+                  <c:v>0.30884713652989199</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>0.48017141924106099</c:v>
+                  <c:v>0.33241433352904598</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>0.52336653140541101</c:v>
+                  <c:v>0.33008739897635803</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>0.43672012521251702</c:v>
+                  <c:v>0.34414563749178001</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>0.442268458845402</c:v>
+                  <c:v>0.35624231946877899</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>0.46345017287036799</c:v>
+                  <c:v>0.32826270524218498</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>0.44504919510331797</c:v>
+                  <c:v>0.33467522840167802</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>0.48231181808260398</c:v>
+                  <c:v>0.33156579384030799</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>0.40899847760991298</c:v>
+                  <c:v>0.32501119604254403</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>0.40043436319504699</c:v>
+                  <c:v>0.372739663159599</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>0.47763495731497102</c:v>
+                  <c:v>0.331752646966812</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>0.45178989531049502</c:v>
+                  <c:v>0.330435093549311</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>0.48076368702466499</c:v>
+                  <c:v>0.34087889615691103</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>0.38881555389357503</c:v>
+                  <c:v>0.32492150922440399</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>0.377294891719197</c:v>
+                  <c:v>0.36019621533530599</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>0.44520636354202298</c:v>
+                  <c:v>0.324181707735401</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>0.433953709149346</c:v>
+                  <c:v>0.33032724935707702</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>0.47125235754929701</c:v>
+                  <c:v>0.34632648906639302</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>0.46359375973168598</c:v>
+                  <c:v>0.32371024503385298</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>0.26655812603788398</c:v>
+                  <c:v>0.36353744125743398</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>0.44545866590049199</c:v>
+                  <c:v>0.32070538273814603</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>0.47998211636836502</c:v>
+                  <c:v>0.33164888554933702</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>0.51156888461772798</c:v>
+                  <c:v>0.32316242947445101</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>0.43094613015765798</c:v>
+                  <c:v>0.34720874961433701</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>0.43776027218344699</c:v>
+                  <c:v>0.352512705514896</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>0.47137480424807598</c:v>
+                  <c:v>0.32826270524218498</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>0.48859234755268899</c:v>
+                  <c:v>0.32345374096148199</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>0.51159007501549403</c:v>
+                  <c:v>0.33022348673083901</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>0.48787950400278901</c:v>
+                  <c:v>0.42743430635287</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>0.50759126921351005</c:v>
+                  <c:v>0.460952166924532</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>0.482870421052145</c:v>
+                  <c:v>0.33107227538568001</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>0.27908205484584098</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>0.28210111715826902</c:v>
+                  <c:v>0.252636536801566</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>0.29284009223013402</c:v>
+                  <c:v>0.252636536801566</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>0.28404387297263001</c:v>
+                  <c:v>0.252636536801566</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>0.28210111715826902</c:v>
+                  <c:v>0.252636536801566</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>0.27908205484584098</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>0.28210111715826902</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>0.280083707706617</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>0.28903765304416201</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>0.28210111715826902</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>0.27908205484584098</c:v>
+                  <c:v>0.26269408006710199</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>0.29687050393995001</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>0.28210111715826902</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>0.28903765304416201</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>0.29687050393995001</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>0.27908205484584098</c:v>
+                  <c:v>0.27971493807262798</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>0.251705538015501</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>0.27592552612133697</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>0.27548985608790499</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>0.27592552612133697</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>0.27908205484584098</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>0.29687050393995001</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>0.280083707706617</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>0.28903765304416201</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>0.28210111715826902</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>0.27908205484584098</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>0.280083707706617</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>0.290852356237079</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>0.29714506150715603</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>0.29284009223013402</c:v>
+                  <c:v>0.25043630494934899</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>0.26324578907837998</c:v>
+                  <c:v>0.28982559926850798</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>0.269055159770829</c:v>
+                  <c:v>0.27774860688347602</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>0.30128863495855801</c:v>
+                  <c:v>0.27820975960179201</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>0.28241763311164902</c:v>
+                  <c:v>0.26739306719522199</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>0.269055159770829</c:v>
+                  <c:v>0.27774860688347602</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>0.26011921097167301</c:v>
+                  <c:v>0.28982559926850798</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>0.26006850772433598</c:v>
+                  <c:v>0.27084402851261402</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>0.29887789710888302</c:v>
+                  <c:v>0.27783497023416898</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>0.27548665640386899</c:v>
+                  <c:v>0.27774860688347602</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>0.269055159770829</c:v>
+                  <c:v>0.27084402851261402</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>0.262837421726904</c:v>
+                  <c:v>0.283396206524899</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>0.27075409756747398</c:v>
+                  <c:v>0.27640812690944999</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>0.27859861621707299</c:v>
+                  <c:v>0.27084402851261402</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>0.27429255014038101</c:v>
+                  <c:v>0.27783497023416898</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>0.28890006636399301</c:v>
+                  <c:v>0.27640812690944999</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>0.27602337111755199</c:v>
+                  <c:v>0.28408578461796902</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>0.286224249134863</c:v>
+                  <c:v>0.269213232350627</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>0.28971469134314698</c:v>
+                  <c:v>0.27084402851261402</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>0.27760240920355</c:v>
+                  <c:v>0.27783497023416898</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>0.286224249134863</c:v>
+                  <c:v>0.269213232350627</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>0.26011921097167301</c:v>
+                  <c:v>0.283396206524899</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>0.26006850772433598</c:v>
+                  <c:v>0.27084402851261402</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>0.27802248461982398</c:v>
+                  <c:v>0.27774860688347602</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>0.27548665640386899</c:v>
+                  <c:v>0.27774860688347602</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>0.269055159770829</c:v>
+                  <c:v>0.27084402851261402</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>0.25479336055096402</c:v>
+                  <c:v>0.27530994130150899</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>0.26413176773171398</c:v>
+                  <c:v>0.27277592276346202</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>0.30242755780025798</c:v>
+                  <c:v>0.27534959089807098</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>0.30152578001913999</c:v>
+                  <c:v>0.28607552746174503</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>0.26623196504770202</c:v>
+                  <c:v>0.27277592276346202</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>0.27326192994075199</c:v>
+                  <c:v>0.261888175276416</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>0.26992410868386502</c:v>
+                  <c:v>0.25453491138810302</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>0.274608552513598</c:v>
+                  <c:v>0.27727225133879102</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>0.31138083432047398</c:v>
+                  <c:v>0.26586804994690699</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>0.26992410868386502</c:v>
+                  <c:v>0.25370177787999798</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>0.243831240290903</c:v>
+                  <c:v>0.25056987556083099</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>0.26807776579090098</c:v>
+                  <c:v>0.25754431805882499</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>0.249418150583642</c:v>
+                  <c:v>0.25560778641952098</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>0.29616610941524801</c:v>
+                  <c:v>0.27099584512950697</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>0.261254740169305</c:v>
+                  <c:v>0.25754431805882499</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>0.256101688270163</c:v>
+                  <c:v>0.26906665372308503</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>0.25302573550588098</c:v>
+                  <c:v>0.25754431805882499</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>0.25670534043038601</c:v>
+                  <c:v>0.25891619682823203</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>0.28229909803548497</c:v>
+                  <c:v>0.27752438387665102</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>0.24634312933815899</c:v>
+                  <c:v>0.25051573913428699</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>0.25858609409455802</c:v>
+                  <c:v>0.26685855378929102</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>0.248895862437094</c:v>
+                  <c:v>0.25147498826157999</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>0.25914944782371602</c:v>
+                  <c:v>0.248675513922231</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>0.28584209236642999</c:v>
+                  <c:v>0.26797155556609098</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>0.252113314450154</c:v>
+                  <c:v>0.25056987556083099</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>0.243831240290903</c:v>
+                  <c:v>0.25217926558202602</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>0.26738775844514201</c:v>
+                  <c:v>0.25754431805882499</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>0.249418150583642</c:v>
+                  <c:v>0.26197308410125097</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>0.29616610941524801</c:v>
+                  <c:v>0.27099584512950697</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>0.26176463645043702</c:v>
+                  <c:v>0.25754431805882499</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>0.28273061331134902</c:v>
+                  <c:v>0.25869426228471099</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>0.26884915494106099</c:v>
+                  <c:v>0.25484461017386301</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>0.27913188835944902</c:v>
+                  <c:v>0.25744251555153103</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>0.33242961735858201</c:v>
+                  <c:v>0.27770513080127601</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>0.267274006954071</c:v>
+                  <c:v>0.259755985970683</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>0.30232357966606999</c:v>
+                  <c:v>0.27056747557503302</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>0.305431749713381</c:v>
+                  <c:v>0.28746209246488003</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>0.30186772221351399</c:v>
+                  <c:v>0.296845517031258</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>0.309216346135676</c:v>
+                  <c:v>0.27061357830317301</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>0.30469412513215899</c:v>
+                  <c:v>0.29244224297305998</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>0.28600033288788701</c:v>
+                  <c:v>0.263242349436276</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>0.298623962247347</c:v>
+                  <c:v>0.28970964905163399</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>0.30065738125779301</c:v>
+                  <c:v>0.301946215761005</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>0.28706924961189301</c:v>
+                  <c:v>0.27562403905382998</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>0.30530712890619899</c:v>
+                  <c:v>0.28970964905163399</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>0.276675483746949</c:v>
+                  <c:v>0.27120751429860801</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>0.27685023490671101</c:v>
+                  <c:v>0.29643946356996698</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>0.28520744954126098</c:v>
+                  <c:v>0.31332062754843099</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>0.29334262467885602</c:v>
+                  <c:v>0.30029421293898501</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>0.290572587545045</c:v>
+                  <c:v>0.28765157443116701</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>0.25263142185441101</c:v>
+                  <c:v>0.273868310164047</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>0.27490645925981999</c:v>
+                  <c:v>0.28776074813869301</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>0.29285940168978603</c:v>
+                  <c:v>0.305247812657165</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>0.32686148681863397</c:v>
+                  <c:v>0.30748074575432599</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>0.271673434584076</c:v>
+                  <c:v>0.27315642909837201</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>0.30301323268311398</c:v>
+                  <c:v>0.27056747557503302</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>0.298623962247347</c:v>
+                  <c:v>0.28765157443116701</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>0.30065738125779301</c:v>
+                  <c:v>0.301946215761005</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>0.29327606783784499</c:v>
+                  <c:v>0.27591888817575499</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>0.30436835571097398</c:v>
+                  <c:v>0.28870435870163202</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>0.28563603131348902</c:v>
+                  <c:v>0.27401187819219502</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>0.31148386298576097</c:v>
+                  <c:v>0.30426467027366799</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>0.31825506586361602</c:v>
+                  <c:v>0.30895053411824702</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>0.32484670071014299</c:v>
+                  <c:v>0.30430121767467799</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>0.305226889057159</c:v>
+                  <c:v>0.29630766965088301</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>0.32618388061047299</c:v>
+                  <c:v>0.28798007892181798</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>0.34665819811805498</c:v>
+                  <c:v>0.27587922890587802</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>0.37237189788667502</c:v>
+                  <c:v>0.27960307799249101</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>0.39089852577344902</c:v>
+                  <c:v>0.26833828092114398</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>0.32010293904556097</c:v>
+                  <c:v>0.28289113061168097</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>0.308428414187633</c:v>
+                  <c:v>0.29274056102171497</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>0.31390624755419499</c:v>
+                  <c:v>0.29377828795785399</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>0.34601351999861502</c:v>
+                  <c:v>0.282558161968613</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>0.40372165438419699</c:v>
+                  <c:v>0.26994394094541002</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>0.303487818892683</c:v>
+                  <c:v>0.28976246975248798</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>0.31706052394485401</c:v>
+                  <c:v>0.30303183896928299</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>0.32223378272305098</c:v>
+                  <c:v>0.28868519403444498</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>0.36209356015608601</c:v>
+                  <c:v>0.29464289602997101</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>0.41043635406866202</c:v>
+                  <c:v>0.29295849166909599</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>0.31484773710178499</c:v>
+                  <c:v>0.29371635570305699</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>0.30744518260878401</c:v>
+                  <c:v>0.293792930194965</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>0.309500856778893</c:v>
+                  <c:v>0.30806858214166</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>0.354328077842885</c:v>
+                  <c:v>0.30731942416160102</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>0.40336141599032099</c:v>
+                  <c:v>0.30864238227463903</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>0.29715957977393098</c:v>
+                  <c:v>0.31091027661380199</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>0.29365560311327799</c:v>
+                  <c:v>0.29403321019075701</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>0.32698284995719401</c:v>
+                  <c:v>0.28761162231368298</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>0.36235673342550001</c:v>
+                  <c:v>0.277462972157344</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>0.39556719807637097</c:v>
+                  <c:v>0.26247662323435</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>0.30674942722387799</c:v>
+                  <c:v>0.29143328108805799</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>0.32117015806668597</c:v>
+                  <c:v>0.29791218307756001</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>0.36074547622271302</c:v>
+                  <c:v>0.29734490021064103</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>0.38155125981672799</c:v>
+                  <c:v>0.31400630302330101</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>0.38416946363305299</c:v>
+                  <c:v>0.30800543546139297</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>0.33367827399033601</c:v>
+                  <c:v>0.28857135242398502</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>0.324280061256917</c:v>
+                  <c:v>0.30213418505164502</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>0.31572778582600097</c:v>
+                  <c:v>0.31279273825020298</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>0.42024836162391199</c:v>
+                  <c:v>0.30681562995407002</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>0.45252943389103101</c:v>
+                  <c:v>0.30928101504940603</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>0.37008309539387302</c:v>
+                  <c:v>0.30062601318643001</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>0.32525724277269202</c:v>
+                  <c:v>0.29149717366176398</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>0.40264042083440998</c:v>
+                  <c:v>0.35019850683061599</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>0.36535549359685499</c:v>
+                  <c:v>0.33158784972500599</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>0.44176556848297199</c:v>
+                  <c:v>0.31918114240798001</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>0.33148347054567001</c:v>
+                  <c:v>0.294920989672871</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>0.32317235427579799</c:v>
+                  <c:v>0.33095518933664497</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>0.36756308554096101</c:v>
+                  <c:v>0.34962306017762002</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>0.434786525394808</c:v>
+                  <c:v>0.32662868514818</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>0.53161244189241297</c:v>
+                  <c:v>0.332197570925654</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>0.35494564523189198</c:v>
+                  <c:v>0.33904772524520999</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>0.32543059416586601</c:v>
+                  <c:v>0.319970774167049</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>0.33851132412414597</c:v>
+                  <c:v>0.35098775076587502</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>0.41669598268602198</c:v>
+                  <c:v>0.33656766111655101</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>0.54105057640294596</c:v>
+                  <c:v>0.335542013241176</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>0.34911750251922602</c:v>
+                  <c:v>0.318365008433383</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>0.316316290100221</c:v>
+                  <c:v>0.30009216078479101</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>0.33625770656102499</c:v>
+                  <c:v>0.30239605968093602</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>0.41194222853261597</c:v>
+                  <c:v>0.30721627804877799</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>0.45366922743698601</c:v>
+                  <c:v>0.284952702667914</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>0.36663688236669201</c:v>
+                  <c:v>0.30054715802458198</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>0.32217365764924499</c:v>
+                  <c:v>0.32391762832128101</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>0.35611160600453901</c:v>
+                  <c:v>0.32276920965919298</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>0.380014867498984</c:v>
+                  <c:v>0.30122847261427899</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>0.48200711033536497</c:v>
+                  <c:v>0.34964034731711802</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>0.42230797443635099</c:v>
+                  <c:v>0.319667743995668</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>0.34169612278457701</c:v>
+                  <c:v>0.309686082636766</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>0.43968057451862902</c:v>
+                  <c:v>0.31777664096501201</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>0.49781814841562499</c:v>
+                  <c:v>0.311560099079633</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>0.41185914652003403</c:v>
+                  <c:v>0.34282285058241402</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>0.33820620150344199</c:v>
+                  <c:v>0.31286978971229401</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>0.30321925428781499</c:v>
+                  <c:v>0.30761700324200503</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>0.34210136506230399</c:v>
+                  <c:v>0.30866340125163</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>0.47816230814788602</c:v>
+                  <c:v>0.32348273709826803</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>0.50990828442398395</c:v>
+                  <c:v>0.33838650463620501</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>0.34138868660702498</c:v>
+                  <c:v>0.30791889416197599</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>0.296016408732513</c:v>
+                  <c:v>0.30573868014556699</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>0.34040366921503501</c:v>
+                  <c:v>0.30890817176069002</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>0.51578504063901698</c:v>
+                  <c:v>0.32462228235511498</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>0.436076387410743</c:v>
+                  <c:v>0.39421283231764698</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>0.28874180234010399</c:v>
+                  <c:v>0.299320412629421</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>0.29597156470133101</c:v>
+                  <c:v>0.29727614146611803</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>0.34380923530916502</c:v>
+                  <c:v>0.31260616116162998</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>0.48170355655365499</c:v>
+                  <c:v>0.34804921318491699</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>0.413423754093725</c:v>
+                  <c:v>0.39310795213664002</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>0.31967859361245798</c:v>
+                  <c:v>0.30493364435421499</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>0.30962452493766901</c:v>
+                  <c:v>0.30761700324200503</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>0.42361790151533801</c:v>
+                  <c:v>0.31457152530990901</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>0.46664727794414901</c:v>
+                  <c:v>0.31459795920525402</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>0.40419476074160698</c:v>
+                  <c:v>0.33789327246290801</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>0.33612204632945603</c:v>
+                  <c:v>0.30647590964473898</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>0.30652797435807499</c:v>
+                  <c:v>0.31589747512488697</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>0.36319725059355501</c:v>
+                  <c:v>0.31796818967156298</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>0.46221807311747498</c:v>
+                  <c:v>0.33945183872478202</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>0.44839626369000901</c:v>
+                  <c:v>0.344580503730742</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>0.39106107812384899</c:v>
+                  <c:v>0.329970239382953</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>0.49110550637059203</c:v>
+                  <c:v>0.29858595145967998</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>0.52274899876555003</c:v>
+                  <c:v>0.32185802894027399</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>0.35601183160884797</c:v>
+                  <c:v>0.30812205017968097</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>0.413097065071661</c:v>
+                  <c:v>0.33638058105409502</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>0.54085678481904798</c:v>
+                  <c:v>0.30524067445305703</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>0.47379843302817698</c:v>
+                  <c:v>0.30054403431441401</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>0.51145522932501697</c:v>
+                  <c:v>0.309499700361903</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>0.31909859282389302</c:v>
+                  <c:v>0.32279349370572802</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>0.42229030229789799</c:v>
+                  <c:v>0.31300437467612102</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>0.493332679090425</c:v>
+                  <c:v>0.30629245435385</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>0.41563843638645698</c:v>
+                  <c:v>0.30780999608174398</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>0.50848676675055604</c:v>
+                  <c:v>0.32618672279718403</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>0.40215611312245803</c:v>
+                  <c:v>0.33901524681754303</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>0.47499800076356302</c:v>
+                  <c:v>0.34467734557605201</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>0.43887810688027201</c:v>
+                  <c:v>0.31717229740089098</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>0.39863748489481798</c:v>
+                  <c:v>0.298909063304797</c:v>
                 </c:pt>
                 <c:pt idx="496">
-                  <c:v>0.474729990426906</c:v>
+                  <c:v>0.31507436303407799</c:v>
                 </c:pt>
                 <c:pt idx="497">
-                  <c:v>0.39785092429271302</c:v>
+                  <c:v>0.332940081081742</c:v>
                 </c:pt>
                 <c:pt idx="498">
-                  <c:v>0.46745505283247801</c:v>
+                  <c:v>0.35856033517175701</c:v>
                 </c:pt>
                 <c:pt idx="499">
-                  <c:v>0.42388150749009101</c:v>
+                  <c:v>0.31522740178647002</c:v>
                 </c:pt>
                 <c:pt idx="500">
-                  <c:v>0.48603138289571801</c:v>
+                  <c:v>0.29279344193875301</c:v>
                 </c:pt>
                 <c:pt idx="501">
-                  <c:v>0.52230894508918602</c:v>
+                  <c:v>0.32146974372494702</c:v>
                 </c:pt>
                 <c:pt idx="502">
-                  <c:v>0.33131802714198699</c:v>
+                  <c:v>0.31123626077497801</c:v>
                 </c:pt>
                 <c:pt idx="503">
-                  <c:v>0.40647757479003299</c:v>
+                  <c:v>0.30186338385900602</c:v>
                 </c:pt>
                 <c:pt idx="504">
-                  <c:v>0.51546889181832201</c:v>
+                  <c:v>0.305037315162619</c:v>
                 </c:pt>
                 <c:pt idx="505">
-                  <c:v>0.48118901020911298</c:v>
+                  <c:v>0.30927522710373601</c:v>
                 </c:pt>
                 <c:pt idx="506">
-                  <c:v>0.53570232158043796</c:v>
+                  <c:v>0.31559487452969998</c:v>
                 </c:pt>
                 <c:pt idx="507">
-                  <c:v>0.34312385172882298</c:v>
+                  <c:v>0.36356306071495997</c:v>
                 </c:pt>
                 <c:pt idx="508">
-                  <c:v>0.49000996294645799</c:v>
+                  <c:v>0.32832702885326998</c:v>
                 </c:pt>
                 <c:pt idx="509">
-                  <c:v>0.53475342199451004</c:v>
+                  <c:v>0.30431513444793201</c:v>
                 </c:pt>
                 <c:pt idx="510">
-                  <c:v>0.49308854106864702</c:v>
+                  <c:v>0.327484168470068</c:v>
                 </c:pt>
                 <c:pt idx="511">
-                  <c:v>0.516766932289355</c:v>
+                  <c:v>0.33814498471753401</c:v>
                 </c:pt>
                 <c:pt idx="512">
-                  <c:v>0.390760167221125</c:v>
+                  <c:v>0.33755497048573302</c:v>
                 </c:pt>
                 <c:pt idx="513">
-                  <c:v>0.36884216200717002</c:v>
+                  <c:v>0.315526027043459</c:v>
                 </c:pt>
                 <c:pt idx="514">
-                  <c:v>0.47128402713600298</c:v>
+                  <c:v>0.32973830602020299</c:v>
                 </c:pt>
                 <c:pt idx="515">
-                  <c:v>0.487797972306872</c:v>
+                  <c:v>0.341121049075994</c:v>
                 </c:pt>
                 <c:pt idx="516">
-                  <c:v>0.50245809159195798</c:v>
+                  <c:v>0.32779073649836099</c:v>
                 </c:pt>
                 <c:pt idx="517">
-                  <c:v>0.39200008571421802</c:v>
+                  <c:v>0.33067032877697</c:v>
                 </c:pt>
                 <c:pt idx="518">
-                  <c:v>0.34600761578502298</c:v>
+                  <c:v>0.33202665287274302</c:v>
                 </c:pt>
                 <c:pt idx="519">
-                  <c:v>0.48690244700361401</c:v>
+                  <c:v>0.33654118243009201</c:v>
                 </c:pt>
                 <c:pt idx="520">
-                  <c:v>0.43708829562256102</c:v>
+                  <c:v>0.33019521676379898</c:v>
                 </c:pt>
                 <c:pt idx="521">
-                  <c:v>0.46760265494407299</c:v>
+                  <c:v>0.32434426223542201</c:v>
                 </c:pt>
                 <c:pt idx="522">
-                  <c:v>0.46815272429708099</c:v>
+                  <c:v>0.33154383064010101</c:v>
                 </c:pt>
                 <c:pt idx="523">
-                  <c:v>0.33258492059063499</c:v>
+                  <c:v>0.35734452063653699</c:v>
                 </c:pt>
                 <c:pt idx="524">
-                  <c:v>0.45722674909382899</c:v>
+                  <c:v>0.33005584637905999</c:v>
                 </c:pt>
                 <c:pt idx="525">
-                  <c:v>0.41857976946277697</c:v>
+                  <c:v>0.33437591649470799</c:v>
                 </c:pt>
                 <c:pt idx="526">
-                  <c:v>0.46725913930105201</c:v>
+                  <c:v>0.33317723346003397</c:v>
                 </c:pt>
                 <c:pt idx="527">
-                  <c:v>0.47171360705873</c:v>
+                  <c:v>0.32479917792255197</c:v>
                 </c:pt>
                 <c:pt idx="528">
-                  <c:v>0.42283378039987901</c:v>
+                  <c:v>0.353368802135967</c:v>
                 </c:pt>
                 <c:pt idx="529">
-                  <c:v>0.45607367269260302</c:v>
+                  <c:v>0.33876589031818399</c:v>
                 </c:pt>
                 <c:pt idx="530">
-                  <c:v>0.490390688308529</c:v>
+                  <c:v>0.33062173960198299</c:v>
                 </c:pt>
                 <c:pt idx="531">
-                  <c:v>0.49534946468952301</c:v>
+                  <c:v>0.33011447973415398</c:v>
                 </c:pt>
                 <c:pt idx="532">
-                  <c:v>0.39523780082319498</c:v>
+                  <c:v>0.32693753456883801</c:v>
                 </c:pt>
                 <c:pt idx="533">
-                  <c:v>0.36874947743462799</c:v>
+                  <c:v>0.32636907365817702</c:v>
                 </c:pt>
                 <c:pt idx="534">
-                  <c:v>0.50968571144717001</c:v>
+                  <c:v>0.32914210719586601</c:v>
                 </c:pt>
                 <c:pt idx="535">
-                  <c:v>0.487637684038502</c:v>
+                  <c:v>0.341756259096193</c:v>
                 </c:pt>
                 <c:pt idx="536">
-                  <c:v>0.48124566818182501</c:v>
+                  <c:v>0.34309242633356701</c:v>
                 </c:pt>
                 <c:pt idx="537">
-                  <c:v>0.44180276851282002</c:v>
+                  <c:v>0.36567572846338198</c:v>
                 </c:pt>
                 <c:pt idx="538">
-                  <c:v>0.42374820671672098</c:v>
+                  <c:v>0.375033793881213</c:v>
                 </c:pt>
                 <c:pt idx="539">
-                  <c:v>0.47270218963100902</c:v>
+                  <c:v>0.34567561671789099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7531,7 +7528,7 @@
   <dimension ref="A1:M541"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+      <selection activeCell="H4" sqref="H4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7585,11 +7582,11 @@
         <v>0.01</v>
       </c>
       <c r="E2">
-        <v>0.230871464601549</v>
+        <v>0.28967246703070498</v>
       </c>
       <c r="F2">
-        <f>MAX(E2:E61)</f>
-        <v>0.54122911727934397</v>
+        <f>MAX(E:E)</f>
+        <v>0.460952166924532</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
@@ -7598,16 +7595,16 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>6</v>
-      </c>
-      <c r="K2">
-        <v>0.90999999999999903</v>
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
       </c>
       <c r="L2">
         <v>0.90999999999999903</v>
       </c>
       <c r="M2">
-        <v>0.66065542488080997</v>
+        <v>0.460952166924532</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -7624,7 +7621,7 @@
         <v>0.31</v>
       </c>
       <c r="E3">
-        <v>0.28118075530382303</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -7641,10 +7638,7 @@
         <v>0.61</v>
       </c>
       <c r="E4">
-        <v>0.28797967558222598</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -7661,7 +7655,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E5">
-        <v>0.29622693723684901</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -7678,7 +7672,7 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>0.280961351915192</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -7695,7 +7689,7 @@
         <v>0.01</v>
       </c>
       <c r="E7">
-        <v>0.230871464601549</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -7712,7 +7706,7 @@
         <v>0.31</v>
       </c>
       <c r="E8">
-        <v>0.29218912481738402</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -7729,7 +7723,7 @@
         <v>0.61</v>
       </c>
       <c r="E9">
-        <v>0.28431545210000397</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -7746,7 +7740,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E10">
-        <v>0.29178768037750502</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -7763,7 +7757,7 @@
         <v>6</v>
       </c>
       <c r="E11">
-        <v>0.280961351915192</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -7780,7 +7774,7 @@
         <v>0.01</v>
       </c>
       <c r="E12">
-        <v>0.22537563332522301</v>
+        <v>0.29177789406702398</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -7797,7 +7791,7 @@
         <v>0.31</v>
       </c>
       <c r="E13">
-        <v>0.29158805410059702</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -7814,7 +7808,7 @@
         <v>0.61</v>
       </c>
       <c r="E14">
-        <v>0.28431545210000297</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -7831,7 +7825,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E15">
-        <v>0.28766397367830299</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -7848,7 +7842,7 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>0.27872858330328798</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -7865,7 +7859,7 @@
         <v>0.01</v>
       </c>
       <c r="E17">
-        <v>0.222924898621704</v>
+        <v>0.29177789406702398</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -7882,7 +7876,7 @@
         <v>0.31</v>
       </c>
       <c r="E18">
-        <v>0.28504574679056799</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -7899,7 +7893,7 @@
         <v>0.61</v>
       </c>
       <c r="E19">
-        <v>0.27872858330328798</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -7916,7 +7910,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E20">
-        <v>0.28541383706114198</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -7933,7 +7927,7 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>0.28972473282570499</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -7950,7 +7944,7 @@
         <v>0.01</v>
       </c>
       <c r="E22">
-        <v>0.230871464601549</v>
+        <v>0.29177789406702398</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -7967,7 +7961,7 @@
         <v>0.31</v>
       </c>
       <c r="E23">
-        <v>0.29218912481738402</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -7984,7 +7978,7 @@
         <v>0.61</v>
       </c>
       <c r="E24">
-        <v>0.28431545210000397</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -8001,7 +7995,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E25">
-        <v>0.28766397367830299</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -8018,7 +8012,7 @@
         <v>6</v>
       </c>
       <c r="E26">
-        <v>0.280961351915192</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -8035,7 +8029,7 @@
         <v>0.01</v>
       </c>
       <c r="E27">
-        <v>0.230871464601549</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -8052,7 +8046,7 @@
         <v>0.31</v>
       </c>
       <c r="E28">
-        <v>0.243993563023817</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -8069,7 +8063,7 @@
         <v>0.61</v>
       </c>
       <c r="E29">
-        <v>0.28797967558222598</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -8086,7 +8080,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E30">
-        <v>0.30812691871078901</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -8103,7 +8097,7 @@
         <v>6</v>
       </c>
       <c r="E31">
-        <v>0.280961351915192</v>
+        <v>0.28967246703070498</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -8120,7 +8114,7 @@
         <v>0.01</v>
       </c>
       <c r="E32">
-        <v>0.28887648444328301</v>
+        <v>0.30472772135951998</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -8137,7 +8131,7 @@
         <v>0.31</v>
       </c>
       <c r="E33">
-        <v>0.30482422019591898</v>
+        <v>0.28390341875282898</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -8154,7 +8148,7 @@
         <v>0.61</v>
       </c>
       <c r="E34">
-        <v>0.33358575585801697</v>
+        <v>0.28555472859882802</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -8171,7 +8165,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E35">
-        <v>0.51360679039465695</v>
+        <v>0.29399938681307702</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -8188,7 +8182,7 @@
         <v>6</v>
       </c>
       <c r="E36">
-        <v>0.28806163310435001</v>
+        <v>0.29004322719453801</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -8205,7 +8199,7 @@
         <v>0.01</v>
       </c>
       <c r="E37">
-        <v>0.26838365839389999</v>
+        <v>0.29678986961569198</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -8222,7 +8216,7 @@
         <v>0.31</v>
       </c>
       <c r="E38">
-        <v>0.30482422019591898</v>
+        <v>0.30016469898785397</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -8239,7 +8233,7 @@
         <v>0.61</v>
       </c>
       <c r="E39">
-        <v>0.34720276122322702</v>
+        <v>0.28470757114638501</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -8256,7 +8250,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E40">
-        <v>0.50677577666535101</v>
+        <v>0.307975782957713</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -8273,7 +8267,7 @@
         <v>6</v>
       </c>
       <c r="E41">
-        <v>0.30482422019591898</v>
+        <v>0.295898661598678</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -8290,7 +8284,7 @@
         <v>0.01</v>
       </c>
       <c r="E42">
-        <v>0.28480115937228501</v>
+        <v>0.28724897552356199</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -8307,7 +8301,7 @@
         <v>0.31</v>
       </c>
       <c r="E43">
-        <v>0.304552173223823</v>
+        <v>0.30016469898785397</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -8324,7 +8318,7 @@
         <v>0.61</v>
       </c>
       <c r="E44">
-        <v>0.293571641819384</v>
+        <v>0.28390341875282898</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -8341,7 +8335,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E45">
-        <v>0.43400818076257902</v>
+        <v>0.29862923893040499</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -8358,7 +8352,7 @@
         <v>6</v>
       </c>
       <c r="E46">
-        <v>0.28806163310435001</v>
+        <v>0.30016469898785397</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -8375,7 +8369,7 @@
         <v>0.01</v>
       </c>
       <c r="E47">
-        <v>0.27009145923377997</v>
+        <v>0.28724897552356199</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -8392,7 +8386,7 @@
         <v>0.31</v>
       </c>
       <c r="E48">
-        <v>0.25558642237611401</v>
+        <v>0.30391057520485598</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -8409,7 +8403,7 @@
         <v>0.61</v>
       </c>
       <c r="E49">
-        <v>0.289422224381989</v>
+        <v>0.28390341875282898</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -8426,7 +8420,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E50">
-        <v>0.35985320207511501</v>
+        <v>0.29603584898152502</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -8443,7 +8437,7 @@
         <v>6</v>
       </c>
       <c r="E51">
-        <v>0.26760950259336702</v>
+        <v>0.30391057520485598</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -8460,7 +8454,7 @@
         <v>0.01</v>
       </c>
       <c r="E52">
-        <v>0.26838365839389999</v>
+        <v>0.29678986961569198</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -8477,7 +8471,7 @@
         <v>0.31</v>
       </c>
       <c r="E53">
-        <v>0.30482422019591898</v>
+        <v>0.30016469898785397</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -8494,7 +8488,7 @@
         <v>0.61</v>
       </c>
       <c r="E54">
-        <v>0.35168907889937301</v>
+        <v>0.28470757114638501</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -8511,7 +8505,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E55">
-        <v>0.50677577666535101</v>
+        <v>0.30347273898129801</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -8528,7 +8522,7 @@
         <v>6</v>
       </c>
       <c r="E56">
-        <v>0.30482422019591898</v>
+        <v>0.295898661598678</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -8545,7 +8539,7 @@
         <v>0.01</v>
       </c>
       <c r="E57">
-        <v>0.281212387879333</v>
+        <v>0.29678986961569198</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -8562,7 +8556,7 @@
         <v>0.31</v>
       </c>
       <c r="E58">
-        <v>0.29858783231898101</v>
+        <v>0.28529616735380198</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -8579,7 +8573,7 @@
         <v>0.61</v>
       </c>
       <c r="E59">
-        <v>0.38782258975288902</v>
+        <v>0.26732724940464297</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -8596,7 +8590,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E60">
-        <v>0.54122911727934397</v>
+        <v>0.32539832728496398</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -8613,7 +8607,7 @@
         <v>6</v>
       </c>
       <c r="E61">
-        <v>0.29858783231898101</v>
+        <v>0.28529616735380198</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -8630,7 +8624,7 @@
         <v>0.01</v>
       </c>
       <c r="E62">
-        <v>0.29618660078028702</v>
+        <v>0.27887909472851202</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -8647,7 +8641,7 @@
         <v>0.31</v>
       </c>
       <c r="E63">
-        <v>0.28535533826673498</v>
+        <v>0.276799443858252</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -8664,7 +8658,7 @@
         <v>0.61</v>
       </c>
       <c r="E64">
-        <v>0.37512252742446001</v>
+        <v>0.27648921927283998</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -8681,7 +8675,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E65">
-        <v>0.50653302674770095</v>
+        <v>0.28673181160968098</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -8698,7 +8692,7 @@
         <v>6</v>
       </c>
       <c r="E66">
-        <v>0.29233069525598898</v>
+        <v>0.276799443858252</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -8715,7 +8709,7 @@
         <v>0.01</v>
       </c>
       <c r="E67">
-        <v>0.23938326620157199</v>
+        <v>0.27028545873687598</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -8732,7 +8726,7 @@
         <v>0.31</v>
       </c>
       <c r="E68">
-        <v>0.29060264427979698</v>
+        <v>0.28132272585592299</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -8749,7 +8743,7 @@
         <v>0.61</v>
       </c>
       <c r="E69">
-        <v>0.35905534204995698</v>
+        <v>0.28132272585592299</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -8766,7 +8760,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E70">
-        <v>0.50694136685032698</v>
+        <v>0.29087466587620098</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -8783,7 +8777,7 @@
         <v>6</v>
       </c>
       <c r="E71">
-        <v>0.319353190780505</v>
+        <v>0.28345993907629002</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -8800,7 +8794,7 @@
         <v>0.01</v>
       </c>
       <c r="E72">
-        <v>0.24178245557568401</v>
+        <v>0.27515324628608201</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -8817,7 +8811,7 @@
         <v>0.31</v>
       </c>
       <c r="E73">
-        <v>0.28068464815181499</v>
+        <v>0.28345993907629002</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -8834,7 +8828,7 @@
         <v>0.61</v>
       </c>
       <c r="E74">
-        <v>0.345872023190749</v>
+        <v>0.27479333124900601</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -8851,7 +8845,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E75">
-        <v>0.51031621784841097</v>
+        <v>0.28654458411725697</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -8868,7 +8862,7 @@
         <v>6</v>
       </c>
       <c r="E76">
-        <v>0.24608688288196301</v>
+        <v>0.28345993907629002</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -8885,7 +8879,7 @@
         <v>0.01</v>
       </c>
       <c r="E77">
-        <v>0.22793266663112499</v>
+        <v>0.27367485624783799</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -8902,7 +8896,7 @@
         <v>0.31</v>
       </c>
       <c r="E78">
-        <v>0.26682414370150698</v>
+        <v>0.27385022147995097</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -8919,7 +8913,7 @@
         <v>0.61</v>
       </c>
       <c r="E79">
-        <v>0.294039044677259</v>
+        <v>0.27479333124900601</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -8936,7 +8930,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E80">
-        <v>0.44195003137699601</v>
+        <v>0.281025649147297</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -8953,7 +8947,7 @@
         <v>6</v>
       </c>
       <c r="E81">
-        <v>0.24360311453102701</v>
+        <v>0.27385022147995097</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
@@ -8970,7 +8964,7 @@
         <v>0.01</v>
       </c>
       <c r="E82">
-        <v>0.26599827991908698</v>
+        <v>0.27028545873687598</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -8987,7 +8981,7 @@
         <v>0.31</v>
       </c>
       <c r="E83">
-        <v>0.29233069525598898</v>
+        <v>0.276799443858252</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -9004,7 +8998,7 @@
         <v>0.61</v>
       </c>
       <c r="E84">
-        <v>0.35905534204995698</v>
+        <v>0.28132272585592299</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -9021,7 +9015,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E85">
-        <v>0.50653302674770095</v>
+        <v>0.29087466587620098</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -9038,7 +9032,7 @@
         <v>6</v>
       </c>
       <c r="E86">
-        <v>0.319353190780505</v>
+        <v>0.27714509269370002</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -9055,7 +9049,7 @@
         <v>0.01</v>
       </c>
       <c r="E87">
-        <v>0.26338495639158199</v>
+        <v>0.27737717214931401</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -9072,7 +9066,7 @@
         <v>0.31</v>
       </c>
       <c r="E88">
-        <v>0.35909157931285202</v>
+        <v>0.28067283732090997</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -9089,7 +9083,7 @@
         <v>0.61</v>
       </c>
       <c r="E89">
-        <v>0.36601285152200103</v>
+        <v>0.27311986909900898</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -9106,7 +9100,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E90">
-        <v>0.56015550367496103</v>
+        <v>0.29131516848509598</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -9123,7 +9117,7 @@
         <v>6</v>
       </c>
       <c r="E91">
-        <v>0.35909157931285202</v>
+        <v>0.276495204158687</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -9140,7 +9134,7 @@
         <v>0.01</v>
       </c>
       <c r="E92">
-        <v>0.32573159353234399</v>
+        <v>0.28896320027019701</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -9157,7 +9151,7 @@
         <v>0.31</v>
       </c>
       <c r="E93">
-        <v>0.38712656424495701</v>
+        <v>0.28700945755678497</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -9174,7 +9168,7 @@
         <v>0.61</v>
       </c>
       <c r="E94">
-        <v>0.45200114720873602</v>
+        <v>0.27588764666258803</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -9191,7 +9185,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E95">
-        <v>0.55365224700599502</v>
+        <v>0.28789524970395802</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -9208,7 +9202,7 @@
         <v>6</v>
       </c>
       <c r="E96">
-        <v>0.38799110001520198</v>
+        <v>0.28825714036050198</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -9225,7 +9219,7 @@
         <v>0.01</v>
       </c>
       <c r="E97">
-        <v>0.32565265874816601</v>
+        <v>0.29349557109597801</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -9242,7 +9236,7 @@
         <v>0.31</v>
       </c>
       <c r="E98">
-        <v>0.39088282417667097</v>
+        <v>0.29820202094655601</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -9259,7 +9253,7 @@
         <v>0.61</v>
       </c>
       <c r="E99">
-        <v>0.44301011164278598</v>
+        <v>0.27156921001984502</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -9276,7 +9270,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E100">
-        <v>0.54109701756442297</v>
+        <v>0.28634478754005299</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -9293,7 +9287,7 @@
         <v>6</v>
       </c>
       <c r="E101">
-        <v>0.36212326809997297</v>
+        <v>0.29394524109824699</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -9310,7 +9304,7 @@
         <v>0.01</v>
       </c>
       <c r="E102">
-        <v>0.29834754112037198</v>
+        <v>0.29801192305152902</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -9327,7 +9321,7 @@
         <v>0.31</v>
       </c>
       <c r="E103">
-        <v>0.37806701237123802</v>
+        <v>0.28966667297294502</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -9344,7 +9338,7 @@
         <v>0.61</v>
       </c>
       <c r="E104">
-        <v>0.40105355719589503</v>
+        <v>0.276698794511479</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -9361,7 +9355,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E105">
-        <v>0.55348052308710105</v>
+        <v>0.276698794511479</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -9378,7 +9372,7 @@
         <v>6</v>
       </c>
       <c r="E106">
-        <v>0.340611070415826</v>
+        <v>0.292272633985175</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -9395,7 +9389,7 @@
         <v>0.01</v>
       </c>
       <c r="E107">
-        <v>0.275332697511179</v>
+        <v>0.301784073925983</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -9412,7 +9406,7 @@
         <v>0.31</v>
       </c>
       <c r="E108">
-        <v>0.35038362099700199</v>
+        <v>0.30065699319887501</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -9429,7 +9423,7 @@
         <v>0.61</v>
       </c>
       <c r="E109">
-        <v>0.34984366874038902</v>
+        <v>0.27169837016453902</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -9446,7 +9440,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E110">
-        <v>0.448490584675723</v>
+        <v>0.276698794511479</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -9463,7 +9457,7 @@
         <v>6</v>
       </c>
       <c r="E111">
-        <v>0.33578777307728402</v>
+        <v>0.29982073914910601</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -9480,7 +9474,7 @@
         <v>0.01</v>
       </c>
       <c r="E112">
-        <v>0.32315031926613702</v>
+        <v>0.29097452366920601</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -9497,7 +9491,7 @@
         <v>0.31</v>
       </c>
       <c r="E113">
-        <v>0.39088282417667097</v>
+        <v>0.28519093719463501</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -9514,7 +9508,7 @@
         <v>0.61</v>
       </c>
       <c r="E114">
-        <v>0.44301011164278598</v>
+        <v>0.27156921001984502</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -9531,7 +9525,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E115">
-        <v>0.54109701756442297</v>
+        <v>0.28142725131983298</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -9548,7 +9542,7 @@
         <v>6</v>
       </c>
       <c r="E116">
-        <v>0.37986253614412602</v>
+        <v>0.28779689820686599</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -9565,7 +9559,7 @@
         <v>0.01</v>
       </c>
       <c r="E117">
-        <v>0.33489978713940599</v>
+        <v>0.29046122783978601</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -9582,7 +9576,7 @@
         <v>0.31</v>
       </c>
       <c r="E118">
-        <v>0.40645729794614099</v>
+        <v>0.29998577405683902</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -9599,7 +9593,7 @@
         <v>0.61</v>
       </c>
       <c r="E119">
-        <v>0.44952270261670901</v>
+        <v>0.273650289479901</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -9616,7 +9610,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E120">
-        <v>0.549434659972863</v>
+        <v>0.27722244197078899</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -9633,7 +9627,7 @@
         <v>6</v>
       </c>
       <c r="E121">
-        <v>0.39373824813521902</v>
+        <v>0.28884293837857</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -9650,7 +9644,7 @@
         <v>0.01</v>
       </c>
       <c r="E122">
-        <v>0.34751826725878698</v>
+        <v>0.30905429569835802</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -9667,7 +9661,7 @@
         <v>0.31</v>
       </c>
       <c r="E123">
-        <v>0.28826348130185198</v>
+        <v>0.29678297688495903</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -9684,7 +9678,7 @@
         <v>0.61</v>
       </c>
       <c r="E124">
-        <v>0.46952770693185403</v>
+        <v>0.28896427942483799</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -9701,7 +9695,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E125">
-        <v>0.55374253532984097</v>
+        <v>0.299484714296326</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -9718,7 +9712,7 @@
         <v>6</v>
       </c>
       <c r="E126">
-        <v>0.297199947839559</v>
+        <v>0.30159745926362802</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -9735,7 +9729,7 @@
         <v>0.01</v>
       </c>
       <c r="E127">
-        <v>0.31590030112811002</v>
+        <v>0.303965227446368</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -9752,7 +9746,7 @@
         <v>0.31</v>
       </c>
       <c r="E128">
-        <v>0.38191179670792502</v>
+        <v>0.300212615252058</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -9769,7 +9763,7 @@
         <v>0.61</v>
       </c>
       <c r="E129">
-        <v>0.42764413467144202</v>
+        <v>0.28692663726845502</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -9786,7 +9780,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E130">
-        <v>0.56907911339364503</v>
+        <v>0.28890857665436798</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -9803,7 +9797,7 @@
         <v>6</v>
       </c>
       <c r="E131">
-        <v>0.356689198456136</v>
+        <v>0.31228241674120399</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -9820,7 +9814,7 @@
         <v>0.01</v>
       </c>
       <c r="E132">
-        <v>0.31709178779903902</v>
+        <v>0.30182186067774602</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -9837,7 +9831,7 @@
         <v>0.31</v>
       </c>
       <c r="E133">
-        <v>0.361478619057652</v>
+        <v>0.297779919874123</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -9854,7 +9848,7 @@
         <v>0.61</v>
       </c>
       <c r="E134">
-        <v>0.41885222343760597</v>
+        <v>0.29418810360998499</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -9871,7 +9865,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E135">
-        <v>0.60540761105754604</v>
+        <v>0.29193242597770902</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -9888,7 +9882,7 @@
         <v>6</v>
       </c>
       <c r="E136">
-        <v>0.35500955104183202</v>
+        <v>0.30010836272674402</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -9905,7 +9899,7 @@
         <v>0.01</v>
       </c>
       <c r="E137">
-        <v>0.31650508532780303</v>
+        <v>0.289892769111599</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -9922,7 +9916,7 @@
         <v>0.31</v>
       </c>
       <c r="E138">
-        <v>0.33326195620536297</v>
+        <v>0.294845976396647</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -9939,7 +9933,7 @@
         <v>0.61</v>
       </c>
       <c r="E139">
-        <v>0.41832514962999301</v>
+        <v>0.29262171671468101</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -9956,7 +9950,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E140">
-        <v>0.66065542488080997</v>
+        <v>0.30113674437604798</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -9973,7 +9967,7 @@
         <v>6</v>
       </c>
       <c r="E141">
-        <v>0.34812506243962399</v>
+        <v>0.30030180210465102</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -9990,7 +9984,7 @@
         <v>0.01</v>
       </c>
       <c r="E142">
-        <v>0.33908031533642702</v>
+        <v>0.30905429569835802</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -10007,7 +10001,7 @@
         <v>0.31</v>
       </c>
       <c r="E143">
-        <v>0.28361818251027698</v>
+        <v>0.30146240814214897</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -10024,7 +10018,7 @@
         <v>0.61</v>
       </c>
       <c r="E144">
-        <v>0.40980108556598199</v>
+        <v>0.28607698094561201</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -10041,7 +10035,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E145">
-        <v>0.54962523034045796</v>
+        <v>0.28796440505752302</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -10058,7 +10052,7 @@
         <v>6</v>
       </c>
       <c r="E146">
-        <v>0.37081760093470101</v>
+        <v>0.30637166534666199</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -10075,7 +10069,7 @@
         <v>0.01</v>
       </c>
       <c r="E147">
-        <v>0.337271854234096</v>
+        <v>0.29241348751184698</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -10092,7 +10086,7 @@
         <v>0.31</v>
       </c>
       <c r="E148">
-        <v>0.35851378590894001</v>
+        <v>0.31239321030918599</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -10109,7 +10103,7 @@
         <v>0.61</v>
       </c>
       <c r="E149">
-        <v>0.546464354821388</v>
+        <v>0.31756194906155599</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -10126,7 +10120,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E150">
-        <v>0.48476895133002701</v>
+        <v>0.30077805802768798</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -10143,7 +10137,7 @@
         <v>6</v>
       </c>
       <c r="E151">
-        <v>0.30643187521183402</v>
+        <v>0.30603783318677202</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -10160,7 +10154,7 @@
         <v>0.01</v>
       </c>
       <c r="E152">
-        <v>0.32231994796887398</v>
+        <v>0.294301129945299</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -10177,7 +10171,7 @@
         <v>0.31</v>
       </c>
       <c r="E153">
-        <v>0.50469442527966901</v>
+        <v>0.29480781663282102</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -10194,7 +10188,7 @@
         <v>0.61</v>
       </c>
       <c r="E154">
-        <v>0.57657277818593999</v>
+        <v>0.32069466840073202</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -10211,7 +10205,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E155">
-        <v>0.59542660824049198</v>
+        <v>0.322247479162383</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -10228,7 +10222,7 @@
         <v>6</v>
       </c>
       <c r="E156">
-        <v>0.39382001731239602</v>
+        <v>0.30268547032936</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -10245,7 +10239,7 @@
         <v>0.01</v>
       </c>
       <c r="E157">
-        <v>0.27935152061398899</v>
+        <v>0.30588251905485497</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -10262,7 +10256,7 @@
         <v>0.31</v>
       </c>
       <c r="E158">
-        <v>0.40689314630914097</v>
+        <v>0.30678201220930401</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -10279,7 +10273,7 @@
         <v>0.61</v>
       </c>
       <c r="E159">
-        <v>0.48553241917949902</v>
+        <v>0.29756100730781798</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -10296,7 +10290,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E160">
-        <v>0.61372352991229995</v>
+        <v>0.340341961596414</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -10313,7 +10307,7 @@
         <v>6</v>
       </c>
       <c r="E161">
-        <v>0.35701975312807499</v>
+        <v>0.30072894325219401</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -10330,7 +10324,7 @@
         <v>0.01</v>
       </c>
       <c r="E162">
-        <v>0.27997233745258598</v>
+        <v>0.30641388587593199</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -10347,7 +10341,7 @@
         <v>0.31</v>
       </c>
       <c r="E163">
-        <v>0.40598676164081898</v>
+        <v>0.298771479419222</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -10364,7 +10358,7 @@
         <v>0.61</v>
       </c>
       <c r="E164">
-        <v>0.45459688480194799</v>
+        <v>0.31413063928117302</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -10381,7 +10375,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E165">
-        <v>0.53243322692928996</v>
+        <v>0.34612413414808701</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -10398,7 +10392,7 @@
         <v>6</v>
       </c>
       <c r="E166">
-        <v>0.34753029728221602</v>
+        <v>0.305575102472319</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -10415,7 +10409,7 @@
         <v>0.01</v>
       </c>
       <c r="E167">
-        <v>0.29683013296549299</v>
+        <v>0.30459541019823699</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -10432,7 +10426,7 @@
         <v>0.31</v>
       </c>
       <c r="E168">
-        <v>0.362780213862268</v>
+        <v>0.29906655305177299</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -10449,7 +10443,7 @@
         <v>0.61</v>
       </c>
       <c r="E169">
-        <v>0.40407169030499301</v>
+        <v>0.34211209892195399</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -10466,7 +10460,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E170">
-        <v>0.453960685755114</v>
+        <v>0.34534907880948701</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -10483,7 +10477,7 @@
         <v>6</v>
       </c>
       <c r="E171">
-        <v>0.33590569204739701</v>
+        <v>0.299931765550564</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -10500,7 +10494,7 @@
         <v>0.01</v>
       </c>
       <c r="E172">
-        <v>0.30601688575620201</v>
+        <v>0.30768080034149398</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -10517,7 +10511,7 @@
         <v>0.31</v>
       </c>
       <c r="E173">
-        <v>0.38771409004882201</v>
+        <v>0.29480781663282102</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -10534,7 +10528,7 @@
         <v>0.61</v>
       </c>
       <c r="E174">
-        <v>0.46360903780085</v>
+        <v>0.30414574213833001</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -10551,7 +10545,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E175">
-        <v>0.59779626081345405</v>
+        <v>0.32633523581649698</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -10568,7 +10562,7 @@
         <v>6</v>
       </c>
       <c r="E176">
-        <v>0.37034370058025601</v>
+        <v>0.302686327100396</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -10585,7 +10579,7 @@
         <v>0.01</v>
       </c>
       <c r="E177">
-        <v>0.34000911091517</v>
+        <v>0.28861862469883498</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -10602,7 +10596,7 @@
         <v>0.31</v>
       </c>
       <c r="E178">
-        <v>0.45630091669273998</v>
+        <v>0.30240592208776801</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -10619,7 +10613,7 @@
         <v>0.61</v>
       </c>
       <c r="E179">
-        <v>0.53125508519521503</v>
+        <v>0.385806245281407</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -10636,7 +10630,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E180">
-        <v>0.52143407804714903</v>
+        <v>0.34547277377528801</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -10653,7 +10647,7 @@
         <v>6</v>
       </c>
       <c r="E181">
-        <v>0.44464487234655797</v>
+        <v>0.29480978695059601</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -10670,7 +10664,7 @@
         <v>0.01</v>
       </c>
       <c r="E182">
-        <v>0.37197974119704402</v>
+        <v>0.30395712343315401</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -10687,7 +10681,7 @@
         <v>0.31</v>
       </c>
       <c r="E183">
-        <v>0.52557963611776704</v>
+        <v>0.33523745246068098</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -10704,7 +10698,7 @@
         <v>0.61</v>
       </c>
       <c r="E184">
-        <v>0.59470912090533901</v>
+        <v>0.34625677294628998</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -10721,7 +10715,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E185">
-        <v>0.480522601648464</v>
+        <v>0.420357465393567</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -10738,7 +10732,7 @@
         <v>6</v>
       </c>
       <c r="E186">
-        <v>0.46033785563785701</v>
+        <v>0.31321872824153302</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -10755,7 +10749,7 @@
         <v>0.01</v>
       </c>
       <c r="E187">
-        <v>0.42747527647047201</v>
+        <v>0.29684371457277903</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -10772,7 +10766,7 @@
         <v>0.31</v>
       </c>
       <c r="E188">
-        <v>0.48335322989867902</v>
+        <v>0.31865722551231201</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -10789,7 +10783,7 @@
         <v>0.61</v>
       </c>
       <c r="E189">
-        <v>0.51002887371350103</v>
+        <v>0.32236417768822001</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -10806,7 +10800,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E190">
-        <v>0.38834278475677098</v>
+        <v>0.32503182208596798</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -10823,7 +10817,7 @@
         <v>6</v>
       </c>
       <c r="E191">
-        <v>0.38156031435952897</v>
+        <v>0.31276164859310202</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -10840,7 +10834,7 @@
         <v>0.01</v>
       </c>
       <c r="E192">
-        <v>0.35707153551235599</v>
+        <v>0.298215174103235</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -10857,7 +10851,7 @@
         <v>0.31</v>
       </c>
       <c r="E193">
-        <v>0.43614550448334899</v>
+        <v>0.31548354758438002</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -10874,7 +10868,7 @@
         <v>0.61</v>
       </c>
       <c r="E194">
-        <v>0.47660280290617402</v>
+        <v>0.34106575200003902</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -10891,7 +10885,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E195">
-        <v>0.39450649571533197</v>
+        <v>0.41967296579296998</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -10908,7 +10902,7 @@
         <v>6</v>
       </c>
       <c r="E196">
-        <v>0.402860165612139</v>
+        <v>0.298160974332008</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -10925,7 +10919,7 @@
         <v>0.01</v>
       </c>
       <c r="E197">
-        <v>0.35401126224482399</v>
+        <v>0.29767390967337898</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -10942,7 +10936,7 @@
         <v>0.31</v>
       </c>
       <c r="E198">
-        <v>0.41520661687536098</v>
+        <v>0.31578381105881698</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -10959,7 +10953,7 @@
         <v>0.61</v>
       </c>
       <c r="E199">
-        <v>0.49894121007241299</v>
+        <v>0.37605213323390702</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -10976,7 +10970,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E200">
-        <v>0.33368409145810002</v>
+        <v>0.38395355090640698</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -10993,7 +10987,7 @@
         <v>6</v>
       </c>
       <c r="E201">
-        <v>0.37769331173100001</v>
+        <v>0.28569011375145298</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -11010,7 +11004,7 @@
         <v>0.01</v>
       </c>
       <c r="E202">
-        <v>0.406592331020454</v>
+        <v>0.30012258756395199</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -11027,7 +11021,7 @@
         <v>0.31</v>
       </c>
       <c r="E203">
-        <v>0.507463275862163</v>
+        <v>0.33473215558450597</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -11044,7 +11038,7 @@
         <v>0.61</v>
       </c>
       <c r="E204">
-        <v>0.59583957513141605</v>
+        <v>0.33637256363578999</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -11061,7 +11055,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E205">
-        <v>0.43967426195307502</v>
+        <v>0.36341223979099502</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -11078,7 +11072,7 @@
         <v>6</v>
       </c>
       <c r="E206">
-        <v>0.45198329258863901</v>
+        <v>0.31692925182253201</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -11095,7 +11089,7 @@
         <v>0.01</v>
       </c>
       <c r="E207">
-        <v>0.399460055093602</v>
+        <v>0.29172687742801001</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -11112,7 +11106,7 @@
         <v>0.31</v>
       </c>
       <c r="E208">
-        <v>0.51256990102139299</v>
+        <v>0.31289823443015602</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -11129,7 +11123,7 @@
         <v>0.61</v>
       </c>
       <c r="E209">
-        <v>0.60501732161820898</v>
+        <v>0.35391991395177502</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -11146,7 +11140,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E210">
-        <v>0.54887243829248999</v>
+        <v>0.43344560836868201</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -11163,7 +11157,7 @@
         <v>6</v>
       </c>
       <c r="E211">
-        <v>0.38292584271786301</v>
+        <v>0.31734208556408899</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -11180,7 +11174,7 @@
         <v>0.01</v>
       </c>
       <c r="E212">
-        <v>0.435004846703619</v>
+        <v>0.31424827125614102</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -11197,7 +11191,7 @@
         <v>0.31</v>
       </c>
       <c r="E213">
-        <v>0.42275437149656198</v>
+        <v>0.33197016554930697</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -11214,7 +11208,7 @@
         <v>0.61</v>
       </c>
       <c r="E214">
-        <v>0.34295308822097997</v>
+        <v>0.32468058172910502</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -11231,7 +11225,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E215">
-        <v>0.324122273984422</v>
+        <v>0.33364088466312503</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -11248,7 +11242,7 @@
         <v>6</v>
       </c>
       <c r="E216">
-        <v>0.52436248093023197</v>
+        <v>0.304181487828391</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
@@ -11265,7 +11259,7 @@
         <v>0.01</v>
       </c>
       <c r="E217">
-        <v>0.40247017228425602</v>
+        <v>0.31352326851460599</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -11282,7 +11276,7 @@
         <v>0.31</v>
       </c>
       <c r="E218">
-        <v>0.41403389412561897</v>
+        <v>0.32179285388442103</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -11299,7 +11293,7 @@
         <v>0.61</v>
       </c>
       <c r="E219">
-        <v>0.40365353339152299</v>
+        <v>0.35374345985079603</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -11316,7 +11310,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E220">
-        <v>0.29146785052115898</v>
+        <v>0.347486093383649</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -11333,7 +11327,7 @@
         <v>6</v>
       </c>
       <c r="E221">
-        <v>0.43969155382789699</v>
+        <v>0.31854250846096699</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -11350,7 +11344,7 @@
         <v>0.01</v>
       </c>
       <c r="E222">
-        <v>0.37309554665102601</v>
+        <v>0.30903439309077002</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
@@ -11367,7 +11361,7 @@
         <v>0.31</v>
       </c>
       <c r="E223">
-        <v>0.50711748518002098</v>
+        <v>0.30835350647196003</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
@@ -11384,7 +11378,7 @@
         <v>0.61</v>
       </c>
       <c r="E224">
-        <v>0.39758209605841199</v>
+        <v>0.34739619005248801</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -11401,7 +11395,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E225">
-        <v>0.307153510387424</v>
+        <v>0.38245473120329598</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -11418,7 +11412,7 @@
         <v>6</v>
       </c>
       <c r="E226">
-        <v>0.41609788071136899</v>
+        <v>0.30971091861567601</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -11435,7 +11429,7 @@
         <v>0.01</v>
       </c>
       <c r="E227">
-        <v>0.35314556643225198</v>
+        <v>0.31047272540540899</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -11452,7 +11446,7 @@
         <v>0.31</v>
       </c>
       <c r="E228">
-        <v>0.47834638038849298</v>
+        <v>0.32717809860769298</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -11469,7 +11463,7 @@
         <v>0.61</v>
       </c>
       <c r="E229">
-        <v>0.48019432192046102</v>
+        <v>0.31961212388306798</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -11486,7 +11480,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E230">
-        <v>0.313704022170325</v>
+        <v>0.40319683149219099</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -11503,7 +11497,7 @@
         <v>6</v>
       </c>
       <c r="E231">
-        <v>0.42228312114072603</v>
+        <v>0.29767030222994401</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -11520,7 +11514,7 @@
         <v>0.01</v>
       </c>
       <c r="E232">
-        <v>0.44956167925171397</v>
+        <v>0.31965660568524801</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -11537,7 +11531,7 @@
         <v>0.31</v>
       </c>
       <c r="E233">
-        <v>0.38325682788877602</v>
+        <v>0.32739448845157498</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -11554,7 +11548,7 @@
         <v>0.61</v>
       </c>
       <c r="E234">
-        <v>0.36384196863680202</v>
+        <v>0.35400983319386897</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -11571,7 +11565,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E235">
-        <v>0.33620683866743001</v>
+        <v>0.33703831299854498</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -11588,7 +11582,7 @@
         <v>6</v>
       </c>
       <c r="E236">
-        <v>0.51750443950231295</v>
+        <v>0.31840705393277802</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -11605,7 +11599,7 @@
         <v>0.01</v>
       </c>
       <c r="E237">
-        <v>0.45076573158218203</v>
+        <v>0.32076956769547699</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -11622,7 +11616,7 @@
         <v>0.31</v>
       </c>
       <c r="E238">
-        <v>0.51887597537125496</v>
+        <v>0.31571273818725398</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -11639,7 +11633,7 @@
         <v>0.61</v>
       </c>
       <c r="E239">
-        <v>0.33468176853638298</v>
+        <v>0.417599717817627</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -11656,7 +11650,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E240">
-        <v>0.283777040564475</v>
+        <v>0.37916039715884797</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -11673,7 +11667,7 @@
         <v>6</v>
       </c>
       <c r="E241">
-        <v>0.52405789475764797</v>
+        <v>0.30884713652989199</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -11690,7 +11684,7 @@
         <v>0.01</v>
       </c>
       <c r="E242">
-        <v>0.48017141924106099</v>
+        <v>0.33241433352904598</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -11707,7 +11701,7 @@
         <v>0.31</v>
       </c>
       <c r="E243">
-        <v>0.52336653140541101</v>
+        <v>0.33008739897635803</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -11724,7 +11718,7 @@
         <v>0.61</v>
       </c>
       <c r="E244">
-        <v>0.43672012521251702</v>
+        <v>0.34414563749178001</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -11741,7 +11735,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E245">
-        <v>0.442268458845402</v>
+        <v>0.35624231946877899</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -11758,7 +11752,7 @@
         <v>6</v>
       </c>
       <c r="E246">
-        <v>0.46345017287036799</v>
+        <v>0.32826270524218498</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -11775,7 +11769,7 @@
         <v>0.01</v>
       </c>
       <c r="E247">
-        <v>0.44504919510331797</v>
+        <v>0.33467522840167802</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -11792,7 +11786,7 @@
         <v>0.31</v>
       </c>
       <c r="E248">
-        <v>0.48231181808260398</v>
+        <v>0.33156579384030799</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -11809,7 +11803,7 @@
         <v>0.61</v>
       </c>
       <c r="E249">
-        <v>0.40899847760991298</v>
+        <v>0.32501119604254403</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -11826,7 +11820,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E250">
-        <v>0.40043436319504699</v>
+        <v>0.372739663159599</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -11843,7 +11837,7 @@
         <v>6</v>
       </c>
       <c r="E251">
-        <v>0.47763495731497102</v>
+        <v>0.331752646966812</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -11860,7 +11854,7 @@
         <v>0.01</v>
       </c>
       <c r="E252">
-        <v>0.45178989531049502</v>
+        <v>0.330435093549311</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -11877,7 +11871,7 @@
         <v>0.31</v>
       </c>
       <c r="E253">
-        <v>0.48076368702466499</v>
+        <v>0.34087889615691103</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -11894,7 +11888,7 @@
         <v>0.61</v>
       </c>
       <c r="E254">
-        <v>0.38881555389357503</v>
+        <v>0.32492150922440399</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -11911,7 +11905,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E255">
-        <v>0.377294891719197</v>
+        <v>0.36019621533530599</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -11928,7 +11922,7 @@
         <v>6</v>
       </c>
       <c r="E256">
-        <v>0.44520636354202298</v>
+        <v>0.324181707735401</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -11945,7 +11939,7 @@
         <v>0.01</v>
       </c>
       <c r="E257">
-        <v>0.433953709149346</v>
+        <v>0.33032724935707702</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -11962,7 +11956,7 @@
         <v>0.31</v>
       </c>
       <c r="E258">
-        <v>0.47125235754929701</v>
+        <v>0.34632648906639302</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -11979,7 +11973,7 @@
         <v>0.61</v>
       </c>
       <c r="E259">
-        <v>0.46359375973168598</v>
+        <v>0.32371024503385298</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -11996,7 +11990,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E260">
-        <v>0.26655812603788398</v>
+        <v>0.36353744125743398</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -12013,7 +12007,7 @@
         <v>6</v>
       </c>
       <c r="E261">
-        <v>0.44545866590049199</v>
+        <v>0.32070538273814603</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -12030,7 +12024,7 @@
         <v>0.01</v>
       </c>
       <c r="E262">
-        <v>0.47998211636836502</v>
+        <v>0.33164888554933702</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -12047,7 +12041,7 @@
         <v>0.31</v>
       </c>
       <c r="E263">
-        <v>0.51156888461772798</v>
+        <v>0.32316242947445101</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -12064,7 +12058,7 @@
         <v>0.61</v>
       </c>
       <c r="E264">
-        <v>0.43094613015765798</v>
+        <v>0.34720874961433701</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -12081,7 +12075,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E265">
-        <v>0.43776027218344699</v>
+        <v>0.352512705514896</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -12098,7 +12092,7 @@
         <v>6</v>
       </c>
       <c r="E266">
-        <v>0.47137480424807598</v>
+        <v>0.32826270524218498</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -12115,7 +12109,7 @@
         <v>0.01</v>
       </c>
       <c r="E267">
-        <v>0.48859234755268899</v>
+        <v>0.32345374096148199</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -12132,7 +12126,7 @@
         <v>0.31</v>
       </c>
       <c r="E268">
-        <v>0.51159007501549403</v>
+        <v>0.33022348673083901</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -12149,7 +12143,7 @@
         <v>0.61</v>
       </c>
       <c r="E269">
-        <v>0.48787950400278901</v>
+        <v>0.42743430635287</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -12166,7 +12160,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E270">
-        <v>0.50759126921351005</v>
+        <v>0.460952166924532</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -12183,7 +12177,7 @@
         <v>6</v>
       </c>
       <c r="E271">
-        <v>0.482870421052145</v>
+        <v>0.33107227538568001</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -12200,7 +12194,7 @@
         <v>0.01</v>
       </c>
       <c r="E272">
-        <v>0.27908205484584098</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -12217,7 +12211,7 @@
         <v>0.31</v>
       </c>
       <c r="E273">
-        <v>0.28210111715826902</v>
+        <v>0.252636536801566</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -12234,7 +12228,7 @@
         <v>0.61</v>
       </c>
       <c r="E274">
-        <v>0.29284009223013402</v>
+        <v>0.252636536801566</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -12251,7 +12245,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E275">
-        <v>0.28404387297263001</v>
+        <v>0.252636536801566</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -12268,7 +12262,7 @@
         <v>6</v>
       </c>
       <c r="E276">
-        <v>0.28210111715826902</v>
+        <v>0.252636536801566</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -12285,7 +12279,7 @@
         <v>0.01</v>
       </c>
       <c r="E277">
-        <v>0.27908205484584098</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -12302,7 +12296,7 @@
         <v>0.31</v>
       </c>
       <c r="E278">
-        <v>0.28210111715826902</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -12319,7 +12313,7 @@
         <v>0.61</v>
       </c>
       <c r="E279">
-        <v>0.280083707706617</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -12336,7 +12330,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E280">
-        <v>0.28903765304416201</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -12353,7 +12347,7 @@
         <v>6</v>
       </c>
       <c r="E281">
-        <v>0.28210111715826902</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -12370,7 +12364,7 @@
         <v>0.01</v>
       </c>
       <c r="E282">
-        <v>0.27908205484584098</v>
+        <v>0.26269408006710199</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -12387,7 +12381,7 @@
         <v>0.31</v>
       </c>
       <c r="E283">
-        <v>0.29687050393995001</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -12404,7 +12398,7 @@
         <v>0.61</v>
       </c>
       <c r="E284">
-        <v>0.28210111715826902</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -12421,7 +12415,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E285">
-        <v>0.28903765304416201</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -12438,7 +12432,7 @@
         <v>6</v>
       </c>
       <c r="E286">
-        <v>0.29687050393995001</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -12455,7 +12449,7 @@
         <v>0.01</v>
       </c>
       <c r="E287">
-        <v>0.27908205484584098</v>
+        <v>0.27971493807262798</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -12472,7 +12466,7 @@
         <v>0.31</v>
       </c>
       <c r="E288">
-        <v>0.251705538015501</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -12489,7 +12483,7 @@
         <v>0.61</v>
       </c>
       <c r="E289">
-        <v>0.27592552612133697</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -12506,7 +12500,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E290">
-        <v>0.27548985608790499</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -12523,7 +12517,7 @@
         <v>6</v>
       </c>
       <c r="E291">
-        <v>0.27592552612133697</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -12540,7 +12534,7 @@
         <v>0.01</v>
       </c>
       <c r="E292">
-        <v>0.27908205484584098</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -12557,7 +12551,7 @@
         <v>0.31</v>
       </c>
       <c r="E293">
-        <v>0.29687050393995001</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -12574,7 +12568,7 @@
         <v>0.61</v>
       </c>
       <c r="E294">
-        <v>0.280083707706617</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -12591,7 +12585,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E295">
-        <v>0.28903765304416201</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -12608,7 +12602,7 @@
         <v>6</v>
       </c>
       <c r="E296">
-        <v>0.28210111715826902</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
@@ -12625,7 +12619,7 @@
         <v>0.01</v>
       </c>
       <c r="E297">
-        <v>0.27908205484584098</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -12642,7 +12636,7 @@
         <v>0.31</v>
       </c>
       <c r="E298">
-        <v>0.280083707706617</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
@@ -12659,7 +12653,7 @@
         <v>0.61</v>
       </c>
       <c r="E299">
-        <v>0.290852356237079</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
@@ -12676,7 +12670,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E300">
-        <v>0.29714506150715603</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -12693,7 +12687,7 @@
         <v>6</v>
       </c>
       <c r="E301">
-        <v>0.29284009223013402</v>
+        <v>0.25043630494934899</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -12710,7 +12704,7 @@
         <v>0.01</v>
       </c>
       <c r="E302">
-        <v>0.26324578907837998</v>
+        <v>0.28982559926850798</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -12727,7 +12721,7 @@
         <v>0.31</v>
       </c>
       <c r="E303">
-        <v>0.269055159770829</v>
+        <v>0.27774860688347602</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -12744,7 +12738,7 @@
         <v>0.61</v>
       </c>
       <c r="E304">
-        <v>0.30128863495855801</v>
+        <v>0.27820975960179201</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -12761,7 +12755,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E305">
-        <v>0.28241763311164902</v>
+        <v>0.26739306719522199</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
@@ -12778,7 +12772,7 @@
         <v>6</v>
       </c>
       <c r="E306">
-        <v>0.269055159770829</v>
+        <v>0.27774860688347602</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -12795,7 +12789,7 @@
         <v>0.01</v>
       </c>
       <c r="E307">
-        <v>0.26011921097167301</v>
+        <v>0.28982559926850798</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -12812,7 +12806,7 @@
         <v>0.31</v>
       </c>
       <c r="E308">
-        <v>0.26006850772433598</v>
+        <v>0.27084402851261402</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -12829,7 +12823,7 @@
         <v>0.61</v>
       </c>
       <c r="E309">
-        <v>0.29887789710888302</v>
+        <v>0.27783497023416898</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -12846,7 +12840,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E310">
-        <v>0.27548665640386899</v>
+        <v>0.27774860688347602</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
@@ -12863,7 +12857,7 @@
         <v>6</v>
       </c>
       <c r="E311">
-        <v>0.269055159770829</v>
+        <v>0.27084402851261402</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -12880,7 +12874,7 @@
         <v>0.01</v>
       </c>
       <c r="E312">
-        <v>0.262837421726904</v>
+        <v>0.283396206524899</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
@@ -12897,7 +12891,7 @@
         <v>0.31</v>
       </c>
       <c r="E313">
-        <v>0.27075409756747398</v>
+        <v>0.27640812690944999</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -12914,7 +12908,7 @@
         <v>0.61</v>
       </c>
       <c r="E314">
-        <v>0.27859861621707299</v>
+        <v>0.27084402851261402</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
@@ -12931,7 +12925,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E315">
-        <v>0.27429255014038101</v>
+        <v>0.27783497023416898</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
@@ -12948,7 +12942,7 @@
         <v>6</v>
       </c>
       <c r="E316">
-        <v>0.28890006636399301</v>
+        <v>0.27640812690944999</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
@@ -12965,7 +12959,7 @@
         <v>0.01</v>
       </c>
       <c r="E317">
-        <v>0.27602337111755199</v>
+        <v>0.28408578461796902</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
@@ -12982,7 +12976,7 @@
         <v>0.31</v>
       </c>
       <c r="E318">
-        <v>0.286224249134863</v>
+        <v>0.269213232350627</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
@@ -12999,7 +12993,7 @@
         <v>0.61</v>
       </c>
       <c r="E319">
-        <v>0.28971469134314698</v>
+        <v>0.27084402851261402</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
@@ -13016,7 +13010,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E320">
-        <v>0.27760240920355</v>
+        <v>0.27783497023416898</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
@@ -13033,7 +13027,7 @@
         <v>6</v>
       </c>
       <c r="E321">
-        <v>0.286224249134863</v>
+        <v>0.269213232350627</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
@@ -13050,7 +13044,7 @@
         <v>0.01</v>
       </c>
       <c r="E322">
-        <v>0.26011921097167301</v>
+        <v>0.283396206524899</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
@@ -13067,7 +13061,7 @@
         <v>0.31</v>
       </c>
       <c r="E323">
-        <v>0.26006850772433598</v>
+        <v>0.27084402851261402</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
@@ -13084,7 +13078,7 @@
         <v>0.61</v>
       </c>
       <c r="E324">
-        <v>0.27802248461982398</v>
+        <v>0.27774860688347602</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
@@ -13101,7 +13095,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E325">
-        <v>0.27548665640386899</v>
+        <v>0.27774860688347602</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
@@ -13118,7 +13112,7 @@
         <v>6</v>
       </c>
       <c r="E326">
-        <v>0.269055159770829</v>
+        <v>0.27084402851261402</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
@@ -13135,7 +13129,7 @@
         <v>0.01</v>
       </c>
       <c r="E327">
-        <v>0.25479336055096402</v>
+        <v>0.27530994130150899</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
@@ -13152,7 +13146,7 @@
         <v>0.31</v>
       </c>
       <c r="E328">
-        <v>0.26413176773171398</v>
+        <v>0.27277592276346202</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
@@ -13169,7 +13163,7 @@
         <v>0.61</v>
       </c>
       <c r="E329">
-        <v>0.30242755780025798</v>
+        <v>0.27534959089807098</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
@@ -13186,7 +13180,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E330">
-        <v>0.30152578001913999</v>
+        <v>0.28607552746174503</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
@@ -13203,7 +13197,7 @@
         <v>6</v>
       </c>
       <c r="E331">
-        <v>0.26623196504770202</v>
+        <v>0.27277592276346202</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
@@ -13220,7 +13214,7 @@
         <v>0.01</v>
       </c>
       <c r="E332">
-        <v>0.27326192994075199</v>
+        <v>0.261888175276416</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
@@ -13237,7 +13231,7 @@
         <v>0.31</v>
       </c>
       <c r="E333">
-        <v>0.26992410868386502</v>
+        <v>0.25453491138810302</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
@@ -13254,7 +13248,7 @@
         <v>0.61</v>
       </c>
       <c r="E334">
-        <v>0.274608552513598</v>
+        <v>0.27727225133879102</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
@@ -13271,7 +13265,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E335">
-        <v>0.31138083432047398</v>
+        <v>0.26586804994690699</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
@@ -13288,7 +13282,7 @@
         <v>6</v>
       </c>
       <c r="E336">
-        <v>0.26992410868386502</v>
+        <v>0.25370177787999798</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.2">
@@ -13305,7 +13299,7 @@
         <v>0.01</v>
       </c>
       <c r="E337">
-        <v>0.243831240290903</v>
+        <v>0.25056987556083099</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.2">
@@ -13322,7 +13316,7 @@
         <v>0.31</v>
       </c>
       <c r="E338">
-        <v>0.26807776579090098</v>
+        <v>0.25754431805882499</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.2">
@@ -13339,7 +13333,7 @@
         <v>0.61</v>
       </c>
       <c r="E339">
-        <v>0.249418150583642</v>
+        <v>0.25560778641952098</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.2">
@@ -13356,7 +13350,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E340">
-        <v>0.29616610941524801</v>
+        <v>0.27099584512950697</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.2">
@@ -13373,7 +13367,7 @@
         <v>6</v>
       </c>
       <c r="E341">
-        <v>0.261254740169305</v>
+        <v>0.25754431805882499</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.2">
@@ -13390,7 +13384,7 @@
         <v>0.01</v>
       </c>
       <c r="E342">
-        <v>0.256101688270163</v>
+        <v>0.26906665372308503</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.2">
@@ -13407,7 +13401,7 @@
         <v>0.31</v>
       </c>
       <c r="E343">
-        <v>0.25302573550588098</v>
+        <v>0.25754431805882499</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.2">
@@ -13424,7 +13418,7 @@
         <v>0.61</v>
       </c>
       <c r="E344">
-        <v>0.25670534043038601</v>
+        <v>0.25891619682823203</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.2">
@@ -13441,7 +13435,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E345">
-        <v>0.28229909803548497</v>
+        <v>0.27752438387665102</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.2">
@@ -13458,7 +13452,7 @@
         <v>6</v>
       </c>
       <c r="E346">
-        <v>0.24634312933815899</v>
+        <v>0.25051573913428699</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.2">
@@ -13475,7 +13469,7 @@
         <v>0.01</v>
       </c>
       <c r="E347">
-        <v>0.25858609409455802</v>
+        <v>0.26685855378929102</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.2">
@@ -13492,7 +13486,7 @@
         <v>0.31</v>
       </c>
       <c r="E348">
-        <v>0.248895862437094</v>
+        <v>0.25147498826157999</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.2">
@@ -13509,7 +13503,7 @@
         <v>0.61</v>
       </c>
       <c r="E349">
-        <v>0.25914944782371602</v>
+        <v>0.248675513922231</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.2">
@@ -13526,7 +13520,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E350">
-        <v>0.28584209236642999</v>
+        <v>0.26797155556609098</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.2">
@@ -13543,7 +13537,7 @@
         <v>6</v>
       </c>
       <c r="E351">
-        <v>0.252113314450154</v>
+        <v>0.25056987556083099</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.2">
@@ -13560,7 +13554,7 @@
         <v>0.01</v>
       </c>
       <c r="E352">
-        <v>0.243831240290903</v>
+        <v>0.25217926558202602</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.2">
@@ -13577,7 +13571,7 @@
         <v>0.31</v>
       </c>
       <c r="E353">
-        <v>0.26738775844514201</v>
+        <v>0.25754431805882499</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.2">
@@ -13594,7 +13588,7 @@
         <v>0.61</v>
       </c>
       <c r="E354">
-        <v>0.249418150583642</v>
+        <v>0.26197308410125097</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.2">
@@ -13611,7 +13605,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E355">
-        <v>0.29616610941524801</v>
+        <v>0.27099584512950697</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.2">
@@ -13628,7 +13622,7 @@
         <v>6</v>
       </c>
       <c r="E356">
-        <v>0.26176463645043702</v>
+        <v>0.25754431805882499</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.2">
@@ -13645,7 +13639,7 @@
         <v>0.01</v>
       </c>
       <c r="E357">
-        <v>0.28273061331134902</v>
+        <v>0.25869426228471099</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.2">
@@ -13662,7 +13656,7 @@
         <v>0.31</v>
       </c>
       <c r="E358">
-        <v>0.26884915494106099</v>
+        <v>0.25484461017386301</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.2">
@@ -13679,7 +13673,7 @@
         <v>0.61</v>
       </c>
       <c r="E359">
-        <v>0.27913188835944902</v>
+        <v>0.25744251555153103</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.2">
@@ -13696,7 +13690,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E360">
-        <v>0.33242961735858201</v>
+        <v>0.27770513080127601</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.2">
@@ -13713,7 +13707,7 @@
         <v>6</v>
       </c>
       <c r="E361">
-        <v>0.267274006954071</v>
+        <v>0.259755985970683</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.2">
@@ -13730,7 +13724,7 @@
         <v>0.01</v>
       </c>
       <c r="E362">
-        <v>0.30232357966606999</v>
+        <v>0.27056747557503302</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.2">
@@ -13747,7 +13741,7 @@
         <v>0.31</v>
       </c>
       <c r="E363">
-        <v>0.305431749713381</v>
+        <v>0.28746209246488003</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.2">
@@ -13764,7 +13758,7 @@
         <v>0.61</v>
       </c>
       <c r="E364">
-        <v>0.30186772221351399</v>
+        <v>0.296845517031258</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.2">
@@ -13781,7 +13775,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E365">
-        <v>0.309216346135676</v>
+        <v>0.27061357830317301</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.2">
@@ -13798,7 +13792,7 @@
         <v>6</v>
       </c>
       <c r="E366">
-        <v>0.30469412513215899</v>
+        <v>0.29244224297305998</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.2">
@@ -13815,7 +13809,7 @@
         <v>0.01</v>
       </c>
       <c r="E367">
-        <v>0.28600033288788701</v>
+        <v>0.263242349436276</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.2">
@@ -13832,7 +13826,7 @@
         <v>0.31</v>
       </c>
       <c r="E368">
-        <v>0.298623962247347</v>
+        <v>0.28970964905163399</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
@@ -13849,7 +13843,7 @@
         <v>0.61</v>
       </c>
       <c r="E369">
-        <v>0.30065738125779301</v>
+        <v>0.301946215761005</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
@@ -13866,7 +13860,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E370">
-        <v>0.28706924961189301</v>
+        <v>0.27562403905382998</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
@@ -13883,7 +13877,7 @@
         <v>6</v>
       </c>
       <c r="E371">
-        <v>0.30530712890619899</v>
+        <v>0.28970964905163399</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
@@ -13900,7 +13894,7 @@
         <v>0.01</v>
       </c>
       <c r="E372">
-        <v>0.276675483746949</v>
+        <v>0.27120751429860801</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
@@ -13917,7 +13911,7 @@
         <v>0.31</v>
       </c>
       <c r="E373">
-        <v>0.27685023490671101</v>
+        <v>0.29643946356996698</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
@@ -13934,7 +13928,7 @@
         <v>0.61</v>
       </c>
       <c r="E374">
-        <v>0.28520744954126098</v>
+        <v>0.31332062754843099</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
@@ -13951,7 +13945,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E375">
-        <v>0.29334262467885602</v>
+        <v>0.30029421293898501</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
@@ -13968,7 +13962,7 @@
         <v>6</v>
       </c>
       <c r="E376">
-        <v>0.290572587545045</v>
+        <v>0.28765157443116701</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
@@ -13985,7 +13979,7 @@
         <v>0.01</v>
       </c>
       <c r="E377">
-        <v>0.25263142185441101</v>
+        <v>0.273868310164047</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
@@ -14002,7 +13996,7 @@
         <v>0.31</v>
       </c>
       <c r="E378">
-        <v>0.27490645925981999</v>
+        <v>0.28776074813869301</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
@@ -14019,7 +14013,7 @@
         <v>0.61</v>
       </c>
       <c r="E379">
-        <v>0.29285940168978603</v>
+        <v>0.305247812657165</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
@@ -14036,7 +14030,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E380">
-        <v>0.32686148681863397</v>
+        <v>0.30748074575432599</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
@@ -14053,7 +14047,7 @@
         <v>6</v>
       </c>
       <c r="E381">
-        <v>0.271673434584076</v>
+        <v>0.27315642909837201</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
@@ -14070,7 +14064,7 @@
         <v>0.01</v>
       </c>
       <c r="E382">
-        <v>0.30301323268311398</v>
+        <v>0.27056747557503302</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
@@ -14087,7 +14081,7 @@
         <v>0.31</v>
       </c>
       <c r="E383">
-        <v>0.298623962247347</v>
+        <v>0.28765157443116701</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
@@ -14104,7 +14098,7 @@
         <v>0.61</v>
       </c>
       <c r="E384">
-        <v>0.30065738125779301</v>
+        <v>0.301946215761005</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
@@ -14121,7 +14115,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E385">
-        <v>0.29327606783784499</v>
+        <v>0.27591888817575499</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
@@ -14138,7 +14132,7 @@
         <v>6</v>
       </c>
       <c r="E386">
-        <v>0.30436835571097398</v>
+        <v>0.28870435870163202</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
@@ -14155,7 +14149,7 @@
         <v>0.01</v>
       </c>
       <c r="E387">
-        <v>0.28563603131348902</v>
+        <v>0.27401187819219502</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
@@ -14172,7 +14166,7 @@
         <v>0.31</v>
       </c>
       <c r="E388">
-        <v>0.31148386298576097</v>
+        <v>0.30426467027366799</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
@@ -14189,7 +14183,7 @@
         <v>0.61</v>
       </c>
       <c r="E389">
-        <v>0.31825506586361602</v>
+        <v>0.30895053411824702</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.2">
@@ -14206,7 +14200,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E390">
-        <v>0.32484670071014299</v>
+        <v>0.30430121767467799</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.2">
@@ -14223,7 +14217,7 @@
         <v>6</v>
       </c>
       <c r="E391">
-        <v>0.305226889057159</v>
+        <v>0.29630766965088301</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.2">
@@ -14240,7 +14234,7 @@
         <v>0.01</v>
       </c>
       <c r="E392">
-        <v>0.32618388061047299</v>
+        <v>0.28798007892181798</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.2">
@@ -14257,7 +14251,7 @@
         <v>0.31</v>
       </c>
       <c r="E393">
-        <v>0.34665819811805498</v>
+        <v>0.27587922890587802</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.2">
@@ -14274,7 +14268,7 @@
         <v>0.61</v>
       </c>
       <c r="E394">
-        <v>0.37237189788667502</v>
+        <v>0.27960307799249101</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.2">
@@ -14291,7 +14285,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E395">
-        <v>0.39089852577344902</v>
+        <v>0.26833828092114398</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.2">
@@ -14308,7 +14302,7 @@
         <v>6</v>
       </c>
       <c r="E396">
-        <v>0.32010293904556097</v>
+        <v>0.28289113061168097</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.2">
@@ -14325,7 +14319,7 @@
         <v>0.01</v>
       </c>
       <c r="E397">
-        <v>0.308428414187633</v>
+        <v>0.29274056102171497</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.2">
@@ -14342,7 +14336,7 @@
         <v>0.31</v>
       </c>
       <c r="E398">
-        <v>0.31390624755419499</v>
+        <v>0.29377828795785399</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.2">
@@ -14359,7 +14353,7 @@
         <v>0.61</v>
       </c>
       <c r="E399">
-        <v>0.34601351999861502</v>
+        <v>0.282558161968613</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.2">
@@ -14376,7 +14370,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E400">
-        <v>0.40372165438419699</v>
+        <v>0.26994394094541002</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.2">
@@ -14393,7 +14387,7 @@
         <v>6</v>
       </c>
       <c r="E401">
-        <v>0.303487818892683</v>
+        <v>0.28976246975248798</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.2">
@@ -14410,7 +14404,7 @@
         <v>0.01</v>
       </c>
       <c r="E402">
-        <v>0.31706052394485401</v>
+        <v>0.30303183896928299</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.2">
@@ -14427,7 +14421,7 @@
         <v>0.31</v>
       </c>
       <c r="E403">
-        <v>0.32223378272305098</v>
+        <v>0.28868519403444498</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.2">
@@ -14444,7 +14438,7 @@
         <v>0.61</v>
       </c>
       <c r="E404">
-        <v>0.36209356015608601</v>
+        <v>0.29464289602997101</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.2">
@@ -14461,7 +14455,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E405">
-        <v>0.41043635406866202</v>
+        <v>0.29295849166909599</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.2">
@@ -14478,7 +14472,7 @@
         <v>6</v>
       </c>
       <c r="E406">
-        <v>0.31484773710178499</v>
+        <v>0.29371635570305699</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.2">
@@ -14495,7 +14489,7 @@
         <v>0.01</v>
       </c>
       <c r="E407">
-        <v>0.30744518260878401</v>
+        <v>0.293792930194965</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.2">
@@ -14512,7 +14506,7 @@
         <v>0.31</v>
       </c>
       <c r="E408">
-        <v>0.309500856778893</v>
+        <v>0.30806858214166</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.2">
@@ -14529,7 +14523,7 @@
         <v>0.61</v>
       </c>
       <c r="E409">
-        <v>0.354328077842885</v>
+        <v>0.30731942416160102</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.2">
@@ -14546,7 +14540,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E410">
-        <v>0.40336141599032099</v>
+        <v>0.30864238227463903</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.2">
@@ -14563,7 +14557,7 @@
         <v>6</v>
       </c>
       <c r="E411">
-        <v>0.29715957977393098</v>
+        <v>0.31091027661380199</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.2">
@@ -14580,7 +14574,7 @@
         <v>0.01</v>
       </c>
       <c r="E412">
-        <v>0.29365560311327799</v>
+        <v>0.29403321019075701</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.2">
@@ -14597,7 +14591,7 @@
         <v>0.31</v>
       </c>
       <c r="E413">
-        <v>0.32698284995719401</v>
+        <v>0.28761162231368298</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.2">
@@ -14614,7 +14608,7 @@
         <v>0.61</v>
       </c>
       <c r="E414">
-        <v>0.36235673342550001</v>
+        <v>0.277462972157344</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.2">
@@ -14631,7 +14625,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E415">
-        <v>0.39556719807637097</v>
+        <v>0.26247662323435</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.2">
@@ -14648,7 +14642,7 @@
         <v>6</v>
       </c>
       <c r="E416">
-        <v>0.30674942722387799</v>
+        <v>0.29143328108805799</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.2">
@@ -14665,7 +14659,7 @@
         <v>0.01</v>
       </c>
       <c r="E417">
-        <v>0.32117015806668597</v>
+        <v>0.29791218307756001</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.2">
@@ -14682,7 +14676,7 @@
         <v>0.31</v>
       </c>
       <c r="E418">
-        <v>0.36074547622271302</v>
+        <v>0.29734490021064103</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.2">
@@ -14699,7 +14693,7 @@
         <v>0.61</v>
       </c>
       <c r="E419">
-        <v>0.38155125981672799</v>
+        <v>0.31400630302330101</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.2">
@@ -14716,7 +14710,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E420">
-        <v>0.38416946363305299</v>
+        <v>0.30800543546139297</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.2">
@@ -14733,7 +14727,7 @@
         <v>6</v>
       </c>
       <c r="E421">
-        <v>0.33367827399033601</v>
+        <v>0.28857135242398502</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.2">
@@ -14750,7 +14744,7 @@
         <v>0.01</v>
       </c>
       <c r="E422">
-        <v>0.324280061256917</v>
+        <v>0.30213418505164502</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.2">
@@ -14767,7 +14761,7 @@
         <v>0.31</v>
       </c>
       <c r="E423">
-        <v>0.31572778582600097</v>
+        <v>0.31279273825020298</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.2">
@@ -14784,7 +14778,7 @@
         <v>0.61</v>
       </c>
       <c r="E424">
-        <v>0.42024836162391199</v>
+        <v>0.30681562995407002</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.2">
@@ -14801,7 +14795,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E425">
-        <v>0.45252943389103101</v>
+        <v>0.30928101504940603</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.2">
@@ -14818,7 +14812,7 @@
         <v>6</v>
       </c>
       <c r="E426">
-        <v>0.37008309539387302</v>
+        <v>0.30062601318643001</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.2">
@@ -14835,7 +14829,7 @@
         <v>0.01</v>
       </c>
       <c r="E427">
-        <v>0.32525724277269202</v>
+        <v>0.29149717366176398</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.2">
@@ -14852,7 +14846,7 @@
         <v>0.31</v>
       </c>
       <c r="E428">
-        <v>0.40264042083440998</v>
+        <v>0.35019850683061599</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.2">
@@ -14869,7 +14863,7 @@
         <v>0.61</v>
       </c>
       <c r="E429">
-        <v>0.36535549359685499</v>
+        <v>0.33158784972500599</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.2">
@@ -14886,7 +14880,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E430">
-        <v>0.44176556848297199</v>
+        <v>0.31918114240798001</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.2">
@@ -14903,7 +14897,7 @@
         <v>6</v>
       </c>
       <c r="E431">
-        <v>0.33148347054567001</v>
+        <v>0.294920989672871</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.2">
@@ -14920,7 +14914,7 @@
         <v>0.01</v>
       </c>
       <c r="E432">
-        <v>0.32317235427579799</v>
+        <v>0.33095518933664497</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.2">
@@ -14937,7 +14931,7 @@
         <v>0.31</v>
       </c>
       <c r="E433">
-        <v>0.36756308554096101</v>
+        <v>0.34962306017762002</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.2">
@@ -14954,7 +14948,7 @@
         <v>0.61</v>
       </c>
       <c r="E434">
-        <v>0.434786525394808</v>
+        <v>0.32662868514818</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.2">
@@ -14971,7 +14965,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E435">
-        <v>0.53161244189241297</v>
+        <v>0.332197570925654</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.2">
@@ -14988,7 +14982,7 @@
         <v>6</v>
       </c>
       <c r="E436">
-        <v>0.35494564523189198</v>
+        <v>0.33904772524520999</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.2">
@@ -15005,7 +14999,7 @@
         <v>0.01</v>
       </c>
       <c r="E437">
-        <v>0.32543059416586601</v>
+        <v>0.319970774167049</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
@@ -15022,7 +15016,7 @@
         <v>0.31</v>
       </c>
       <c r="E438">
-        <v>0.33851132412414597</v>
+        <v>0.35098775076587502</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.2">
@@ -15039,7 +15033,7 @@
         <v>0.61</v>
       </c>
       <c r="E439">
-        <v>0.41669598268602198</v>
+        <v>0.33656766111655101</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.2">
@@ -15056,7 +15050,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E440">
-        <v>0.54105057640294596</v>
+        <v>0.335542013241176</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.2">
@@ -15073,7 +15067,7 @@
         <v>6</v>
       </c>
       <c r="E441">
-        <v>0.34911750251922602</v>
+        <v>0.318365008433383</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.2">
@@ -15090,7 +15084,7 @@
         <v>0.01</v>
       </c>
       <c r="E442">
-        <v>0.316316290100221</v>
+        <v>0.30009216078479101</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.2">
@@ -15107,7 +15101,7 @@
         <v>0.31</v>
       </c>
       <c r="E443">
-        <v>0.33625770656102499</v>
+        <v>0.30239605968093602</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.2">
@@ -15124,7 +15118,7 @@
         <v>0.61</v>
       </c>
       <c r="E444">
-        <v>0.41194222853261597</v>
+        <v>0.30721627804877799</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.2">
@@ -15141,7 +15135,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E445">
-        <v>0.45366922743698601</v>
+        <v>0.284952702667914</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.2">
@@ -15158,7 +15152,7 @@
         <v>6</v>
       </c>
       <c r="E446">
-        <v>0.36663688236669201</v>
+        <v>0.30054715802458198</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.2">
@@ -15175,7 +15169,7 @@
         <v>0.01</v>
       </c>
       <c r="E447">
-        <v>0.32217365764924499</v>
+        <v>0.32391762832128101</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.2">
@@ -15192,7 +15186,7 @@
         <v>0.31</v>
       </c>
       <c r="E448">
-        <v>0.35611160600453901</v>
+        <v>0.32276920965919298</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.2">
@@ -15209,7 +15203,7 @@
         <v>0.61</v>
       </c>
       <c r="E449">
-        <v>0.380014867498984</v>
+        <v>0.30122847261427899</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.2">
@@ -15226,7 +15220,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E450">
-        <v>0.48200711033536497</v>
+        <v>0.34964034731711802</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.2">
@@ -15243,7 +15237,7 @@
         <v>6</v>
       </c>
       <c r="E451">
-        <v>0.42230797443635099</v>
+        <v>0.319667743995668</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.2">
@@ -15260,7 +15254,7 @@
         <v>0.01</v>
       </c>
       <c r="E452">
-        <v>0.34169612278457701</v>
+        <v>0.309686082636766</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.2">
@@ -15277,7 +15271,7 @@
         <v>0.31</v>
       </c>
       <c r="E453">
-        <v>0.43968057451862902</v>
+        <v>0.31777664096501201</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.2">
@@ -15294,7 +15288,7 @@
         <v>0.61</v>
       </c>
       <c r="E454">
-        <v>0.49781814841562499</v>
+        <v>0.311560099079633</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.2">
@@ -15311,7 +15305,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E455">
-        <v>0.41185914652003403</v>
+        <v>0.34282285058241402</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.2">
@@ -15328,7 +15322,7 @@
         <v>6</v>
       </c>
       <c r="E456">
-        <v>0.33820620150344199</v>
+        <v>0.31286978971229401</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.2">
@@ -15345,7 +15339,7 @@
         <v>0.01</v>
       </c>
       <c r="E457">
-        <v>0.30321925428781499</v>
+        <v>0.30761700324200503</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.2">
@@ -15362,7 +15356,7 @@
         <v>0.31</v>
       </c>
       <c r="E458">
-        <v>0.34210136506230399</v>
+        <v>0.30866340125163</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.2">
@@ -15379,7 +15373,7 @@
         <v>0.61</v>
       </c>
       <c r="E459">
-        <v>0.47816230814788602</v>
+        <v>0.32348273709826803</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.2">
@@ -15396,7 +15390,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E460">
-        <v>0.50990828442398395</v>
+        <v>0.33838650463620501</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.2">
@@ -15413,7 +15407,7 @@
         <v>6</v>
       </c>
       <c r="E461">
-        <v>0.34138868660702498</v>
+        <v>0.30791889416197599</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.2">
@@ -15430,7 +15424,7 @@
         <v>0.01</v>
       </c>
       <c r="E462">
-        <v>0.296016408732513</v>
+        <v>0.30573868014556699</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.2">
@@ -15447,7 +15441,7 @@
         <v>0.31</v>
       </c>
       <c r="E463">
-        <v>0.34040366921503501</v>
+        <v>0.30890817176069002</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.2">
@@ -15464,7 +15458,7 @@
         <v>0.61</v>
       </c>
       <c r="E464">
-        <v>0.51578504063901698</v>
+        <v>0.32462228235511498</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.2">
@@ -15481,7 +15475,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E465">
-        <v>0.436076387410743</v>
+        <v>0.39421283231764698</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.2">
@@ -15498,7 +15492,7 @@
         <v>6</v>
       </c>
       <c r="E466">
-        <v>0.28874180234010399</v>
+        <v>0.299320412629421</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.2">
@@ -15515,7 +15509,7 @@
         <v>0.01</v>
       </c>
       <c r="E467">
-        <v>0.29597156470133101</v>
+        <v>0.29727614146611803</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.2">
@@ -15532,7 +15526,7 @@
         <v>0.31</v>
       </c>
       <c r="E468">
-        <v>0.34380923530916502</v>
+        <v>0.31260616116162998</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.2">
@@ -15549,7 +15543,7 @@
         <v>0.61</v>
       </c>
       <c r="E469">
-        <v>0.48170355655365499</v>
+        <v>0.34804921318491699</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.2">
@@ -15566,7 +15560,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E470">
-        <v>0.413423754093725</v>
+        <v>0.39310795213664002</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.2">
@@ -15583,7 +15577,7 @@
         <v>6</v>
       </c>
       <c r="E471">
-        <v>0.31967859361245798</v>
+        <v>0.30493364435421499</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.2">
@@ -15600,7 +15594,7 @@
         <v>0.01</v>
       </c>
       <c r="E472">
-        <v>0.30962452493766901</v>
+        <v>0.30761700324200503</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.2">
@@ -15617,7 +15611,7 @@
         <v>0.31</v>
       </c>
       <c r="E473">
-        <v>0.42361790151533801</v>
+        <v>0.31457152530990901</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.2">
@@ -15634,7 +15628,7 @@
         <v>0.61</v>
       </c>
       <c r="E474">
-        <v>0.46664727794414901</v>
+        <v>0.31459795920525402</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.2">
@@ -15651,7 +15645,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E475">
-        <v>0.40419476074160698</v>
+        <v>0.33789327246290801</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.2">
@@ -15668,7 +15662,7 @@
         <v>6</v>
       </c>
       <c r="E476">
-        <v>0.33612204632945603</v>
+        <v>0.30647590964473898</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.2">
@@ -15685,7 +15679,7 @@
         <v>0.01</v>
       </c>
       <c r="E477">
-        <v>0.30652797435807499</v>
+        <v>0.31589747512488697</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.2">
@@ -15702,7 +15696,7 @@
         <v>0.31</v>
       </c>
       <c r="E478">
-        <v>0.36319725059355501</v>
+        <v>0.31796818967156298</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.2">
@@ -15719,7 +15713,7 @@
         <v>0.61</v>
       </c>
       <c r="E479">
-        <v>0.46221807311747498</v>
+        <v>0.33945183872478202</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.2">
@@ -15736,7 +15730,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E480">
-        <v>0.44839626369000901</v>
+        <v>0.344580503730742</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.2">
@@ -15753,7 +15747,7 @@
         <v>6</v>
       </c>
       <c r="E481">
-        <v>0.39106107812384899</v>
+        <v>0.329970239382953</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.2">
@@ -15770,7 +15764,7 @@
         <v>0.01</v>
       </c>
       <c r="E482">
-        <v>0.49110550637059203</v>
+        <v>0.29858595145967998</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.2">
@@ -15787,7 +15781,7 @@
         <v>0.31</v>
       </c>
       <c r="E483">
-        <v>0.52274899876555003</v>
+        <v>0.32185802894027399</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.2">
@@ -15804,7 +15798,7 @@
         <v>0.61</v>
       </c>
       <c r="E484">
-        <v>0.35601183160884797</v>
+        <v>0.30812205017968097</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.2">
@@ -15821,7 +15815,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E485">
-        <v>0.413097065071661</v>
+        <v>0.33638058105409502</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.2">
@@ -15838,7 +15832,7 @@
         <v>6</v>
       </c>
       <c r="E486">
-        <v>0.54085678481904798</v>
+        <v>0.30524067445305703</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.2">
@@ -15855,7 +15849,7 @@
         <v>0.01</v>
       </c>
       <c r="E487">
-        <v>0.47379843302817698</v>
+        <v>0.30054403431441401</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.2">
@@ -15872,7 +15866,7 @@
         <v>0.31</v>
       </c>
       <c r="E488">
-        <v>0.51145522932501697</v>
+        <v>0.309499700361903</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.2">
@@ -15889,7 +15883,7 @@
         <v>0.61</v>
       </c>
       <c r="E489">
-        <v>0.31909859282389302</v>
+        <v>0.32279349370572802</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.2">
@@ -15906,7 +15900,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E490">
-        <v>0.42229030229789799</v>
+        <v>0.31300437467612102</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.2">
@@ -15923,7 +15917,7 @@
         <v>6</v>
       </c>
       <c r="E491">
-        <v>0.493332679090425</v>
+        <v>0.30629245435385</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.2">
@@ -15940,7 +15934,7 @@
         <v>0.01</v>
       </c>
       <c r="E492">
-        <v>0.41563843638645698</v>
+        <v>0.30780999608174398</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.2">
@@ -15957,7 +15951,7 @@
         <v>0.31</v>
       </c>
       <c r="E493">
-        <v>0.50848676675055604</v>
+        <v>0.32618672279718403</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.2">
@@ -15974,7 +15968,7 @@
         <v>0.61</v>
       </c>
       <c r="E494">
-        <v>0.40215611312245803</v>
+        <v>0.33901524681754303</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.2">
@@ -15991,7 +15985,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E495">
-        <v>0.47499800076356302</v>
+        <v>0.34467734557605201</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.2">
@@ -16008,7 +16002,7 @@
         <v>6</v>
       </c>
       <c r="E496">
-        <v>0.43887810688027201</v>
+        <v>0.31717229740089098</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.2">
@@ -16025,7 +16019,7 @@
         <v>0.01</v>
       </c>
       <c r="E497">
-        <v>0.39863748489481798</v>
+        <v>0.298909063304797</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.2">
@@ -16042,7 +16036,7 @@
         <v>0.31</v>
       </c>
       <c r="E498">
-        <v>0.474729990426906</v>
+        <v>0.31507436303407799</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.2">
@@ -16059,7 +16053,7 @@
         <v>0.61</v>
       </c>
       <c r="E499">
-        <v>0.39785092429271302</v>
+        <v>0.332940081081742</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.2">
@@ -16076,7 +16070,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E500">
-        <v>0.46745505283247801</v>
+        <v>0.35856033517175701</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.2">
@@ -16093,7 +16087,7 @@
         <v>6</v>
       </c>
       <c r="E501">
-        <v>0.42388150749009101</v>
+        <v>0.31522740178647002</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.2">
@@ -16110,7 +16104,7 @@
         <v>0.01</v>
       </c>
       <c r="E502">
-        <v>0.48603138289571801</v>
+        <v>0.29279344193875301</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.2">
@@ -16127,7 +16121,7 @@
         <v>0.31</v>
       </c>
       <c r="E503">
-        <v>0.52230894508918602</v>
+        <v>0.32146974372494702</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.2">
@@ -16144,7 +16138,7 @@
         <v>0.61</v>
       </c>
       <c r="E504">
-        <v>0.33131802714198699</v>
+        <v>0.31123626077497801</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.2">
@@ -16161,7 +16155,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E505">
-        <v>0.40647757479003299</v>
+        <v>0.30186338385900602</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.2">
@@ -16178,7 +16172,7 @@
         <v>6</v>
       </c>
       <c r="E506">
-        <v>0.51546889181832201</v>
+        <v>0.305037315162619</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.2">
@@ -16195,7 +16189,7 @@
         <v>0.01</v>
       </c>
       <c r="E507">
-        <v>0.48118901020911298</v>
+        <v>0.30927522710373601</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.2">
@@ -16212,7 +16206,7 @@
         <v>0.31</v>
       </c>
       <c r="E508">
-        <v>0.53570232158043796</v>
+        <v>0.31559487452969998</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.2">
@@ -16229,7 +16223,7 @@
         <v>0.61</v>
       </c>
       <c r="E509">
-        <v>0.34312385172882298</v>
+        <v>0.36356306071495997</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.2">
@@ -16246,7 +16240,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E510">
-        <v>0.49000996294645799</v>
+        <v>0.32832702885326998</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.2">
@@ -16263,7 +16257,7 @@
         <v>6</v>
       </c>
       <c r="E511">
-        <v>0.53475342199451004</v>
+        <v>0.30431513444793201</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.2">
@@ -16280,7 +16274,7 @@
         <v>0.01</v>
       </c>
       <c r="E512">
-        <v>0.49308854106864702</v>
+        <v>0.327484168470068</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.2">
@@ -16297,7 +16291,7 @@
         <v>0.31</v>
       </c>
       <c r="E513">
-        <v>0.516766932289355</v>
+        <v>0.33814498471753401</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.2">
@@ -16314,7 +16308,7 @@
         <v>0.61</v>
       </c>
       <c r="E514">
-        <v>0.390760167221125</v>
+        <v>0.33755497048573302</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.2">
@@ -16331,7 +16325,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E515">
-        <v>0.36884216200717002</v>
+        <v>0.315526027043459</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.2">
@@ -16348,7 +16342,7 @@
         <v>6</v>
       </c>
       <c r="E516">
-        <v>0.47128402713600298</v>
+        <v>0.32973830602020299</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.2">
@@ -16365,7 +16359,7 @@
         <v>0.01</v>
       </c>
       <c r="E517">
-        <v>0.487797972306872</v>
+        <v>0.341121049075994</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.2">
@@ -16382,7 +16376,7 @@
         <v>0.31</v>
       </c>
       <c r="E518">
-        <v>0.50245809159195798</v>
+        <v>0.32779073649836099</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.2">
@@ -16399,7 +16393,7 @@
         <v>0.61</v>
       </c>
       <c r="E519">
-        <v>0.39200008571421802</v>
+        <v>0.33067032877697</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.2">
@@ -16416,7 +16410,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E520">
-        <v>0.34600761578502298</v>
+        <v>0.33202665287274302</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.2">
@@ -16433,7 +16427,7 @@
         <v>6</v>
       </c>
       <c r="E521">
-        <v>0.48690244700361401</v>
+        <v>0.33654118243009201</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.2">
@@ -16450,7 +16444,7 @@
         <v>0.01</v>
       </c>
       <c r="E522">
-        <v>0.43708829562256102</v>
+        <v>0.33019521676379898</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.2">
@@ -16467,7 +16461,7 @@
         <v>0.31</v>
       </c>
       <c r="E523">
-        <v>0.46760265494407299</v>
+        <v>0.32434426223542201</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.2">
@@ -16484,7 +16478,7 @@
         <v>0.61</v>
       </c>
       <c r="E524">
-        <v>0.46815272429708099</v>
+        <v>0.33154383064010101</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.2">
@@ -16501,7 +16495,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E525">
-        <v>0.33258492059063499</v>
+        <v>0.35734452063653699</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.2">
@@ -16518,7 +16512,7 @@
         <v>6</v>
       </c>
       <c r="E526">
-        <v>0.45722674909382899</v>
+        <v>0.33005584637905999</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.2">
@@ -16535,7 +16529,7 @@
         <v>0.01</v>
       </c>
       <c r="E527">
-        <v>0.41857976946277697</v>
+        <v>0.33437591649470799</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.2">
@@ -16552,7 +16546,7 @@
         <v>0.31</v>
       </c>
       <c r="E528">
-        <v>0.46725913930105201</v>
+        <v>0.33317723346003397</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.2">
@@ -16569,7 +16563,7 @@
         <v>0.61</v>
       </c>
       <c r="E529">
-        <v>0.47171360705873</v>
+        <v>0.32479917792255197</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.2">
@@ -16586,7 +16580,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E530">
-        <v>0.42283378039987901</v>
+        <v>0.353368802135967</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.2">
@@ -16603,7 +16597,7 @@
         <v>6</v>
       </c>
       <c r="E531">
-        <v>0.45607367269260302</v>
+        <v>0.33876589031818399</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.2">
@@ -16620,7 +16614,7 @@
         <v>0.01</v>
       </c>
       <c r="E532">
-        <v>0.490390688308529</v>
+        <v>0.33062173960198299</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.2">
@@ -16637,7 +16631,7 @@
         <v>0.31</v>
       </c>
       <c r="E533">
-        <v>0.49534946468952301</v>
+        <v>0.33011447973415398</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.2">
@@ -16654,7 +16648,7 @@
         <v>0.61</v>
       </c>
       <c r="E534">
-        <v>0.39523780082319498</v>
+        <v>0.32693753456883801</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.2">
@@ -16671,7 +16665,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E535">
-        <v>0.36874947743462799</v>
+        <v>0.32636907365817702</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.2">
@@ -16688,7 +16682,7 @@
         <v>6</v>
       </c>
       <c r="E536">
-        <v>0.50968571144717001</v>
+        <v>0.32914210719586601</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.2">
@@ -16705,7 +16699,7 @@
         <v>0.01</v>
       </c>
       <c r="E537">
-        <v>0.487637684038502</v>
+        <v>0.341756259096193</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.2">
@@ -16722,7 +16716,7 @@
         <v>0.31</v>
       </c>
       <c r="E538">
-        <v>0.48124566818182501</v>
+        <v>0.34309242633356701</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.2">
@@ -16739,7 +16733,7 @@
         <v>0.61</v>
       </c>
       <c r="E539">
-        <v>0.44180276851282002</v>
+        <v>0.36567572846338198</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.2">
@@ -16756,7 +16750,7 @@
         <v>0.90999999999999903</v>
       </c>
       <c r="E540">
-        <v>0.42374820671672098</v>
+        <v>0.375033793881213</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.2">
@@ -16773,7 +16767,7 @@
         <v>6</v>
       </c>
       <c r="E541">
-        <v>0.47270218963100902</v>
+        <v>0.34567561671789099</v>
       </c>
     </row>
   </sheetData>
